--- a/Hola.xlsx
+++ b/Hola.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc99\Desktop\Juegos\Equilibrador de equipos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc99\Desktop\Juegos\Equilibrador de equipos\Aplicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AC7260E-2BBA-49E8-B410-ECDACA4ABC04}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DE7AC0-1C97-48ED-B826-CF55BF6DC33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="2" xr2:uid="{20DD6167-8357-4DB5-A000-07A6952B8822}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{20DD6167-8357-4DB5-A000-07A6952B8822}"/>
   </bookViews>
   <sheets>
     <sheet name="Jugadores" sheetId="1" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
   <si>
     <t>CMC</t>
   </si>
@@ -339,12 +339,6 @@
     <t>Fecha</t>
   </si>
   <si>
-    <t>Equipo A (IDs)</t>
-  </si>
-  <si>
-    <t>Equipo B (IDs)</t>
-  </si>
-  <si>
     <t>Goles A</t>
   </si>
   <si>
@@ -354,33 +348,18 @@
     <t>Comentarios</t>
   </si>
   <si>
-    <t>1,2,3,4,5</t>
-  </si>
-  <si>
-    <t>6,7,8,9,10</t>
-  </si>
-  <si>
     <t>1.0</t>
   </si>
   <si>
     <t>Muy parejo</t>
   </si>
   <si>
-    <t>1,3,5,7,9</t>
-  </si>
-  <si>
-    <t>2,4,6,8,10</t>
-  </si>
-  <si>
     <t>0.3</t>
   </si>
   <si>
     <t>Un equipo dominó</t>
   </si>
   <si>
-    <t>…</t>
-  </si>
-  <si>
     <t>Equilibrado (0-10)</t>
   </si>
   <si>
@@ -423,9 +402,6 @@
     <t>Partidos jugados</t>
   </si>
   <si>
-    <t>Jugadores</t>
-  </si>
-  <si>
     <t>Victorias</t>
   </si>
   <si>
@@ -435,17 +411,65 @@
     <t>Equipo A</t>
   </si>
   <si>
-    <t>winrate</t>
-  </si>
-  <si>
-    <t>=</t>
+    <t>Jugador 1</t>
+  </si>
+  <si>
+    <t>Jugador 2</t>
+  </si>
+  <si>
+    <t>Jugador 3</t>
+  </si>
+  <si>
+    <t>Jugador 4</t>
+  </si>
+  <si>
+    <t>Jugador 5</t>
+  </si>
+  <si>
+    <t>Winrate</t>
+  </si>
+  <si>
+    <t>Diferencia de goles</t>
+  </si>
+  <si>
+    <t>Jugador 1 (Equipo A)</t>
+  </si>
+  <si>
+    <t>Jugador 2 (Equipo A)</t>
+  </si>
+  <si>
+    <t>Jugador 3 (Equipo A)</t>
+  </si>
+  <si>
+    <t>Jugador 4 (Equipo A)</t>
+  </si>
+  <si>
+    <t>Jugador 5 (Equipo A)</t>
+  </si>
+  <si>
+    <t>Jugador 5 (Equipo B)</t>
+  </si>
+  <si>
+    <t>Jugador 4 (Equipo B)</t>
+  </si>
+  <si>
+    <t>Jugador 3 (Equipo B)</t>
+  </si>
+  <si>
+    <t>Jugador 2 (Equipo B)</t>
+  </si>
+  <si>
+    <t>Jugador 1 (Equipo B)</t>
+  </si>
+  <si>
+    <t>Juanma</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -457,6 +481,12 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Aptos Narrow"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -834,28 +864,28 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2840A4B-1AB7-4CA1-B815-75CB70BF4C7C}">
-  <dimension ref="A1:N20"/>
+  <dimension ref="A1:N21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane xSplit="2" topLeftCell="D1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E1" sqref="E1:J1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="20.88671875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="26.6640625" style="1" customWidth="1"/>
-    <col min="4" max="13" width="24.6640625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="18.44140625" style="1" customWidth="1"/>
-    <col min="15" max="15" width="15.44140625" customWidth="1"/>
-    <col min="16" max="16" width="19.6640625" customWidth="1"/>
-    <col min="17" max="17" width="18.6640625" customWidth="1"/>
-    <col min="18" max="18" width="19.88671875" customWidth="1"/>
-    <col min="19" max="19" width="13.33203125" customWidth="1"/>
-    <col min="20" max="20" width="14.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.85546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="26.7109375" style="1" customWidth="1"/>
+    <col min="4" max="13" width="24.7109375" style="1" customWidth="1"/>
+    <col min="14" max="14" width="18.42578125" style="1" customWidth="1"/>
+    <col min="15" max="15" width="15.42578125" customWidth="1"/>
+    <col min="16" max="16" width="19.7109375" customWidth="1"/>
+    <col min="17" max="17" width="18.7109375" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" customWidth="1"/>
+    <col min="19" max="19" width="13.28515625" customWidth="1"/>
+    <col min="20" max="20" width="14.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>62</v>
       </c>
@@ -896,7 +926,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -935,7 +965,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -974,7 +1004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1013,7 +1043,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1052,7 +1082,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1091,7 +1121,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1130,7 +1160,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1169,7 +1199,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1208,7 +1238,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1247,7 +1277,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1286,7 +1316,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1325,7 +1355,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1358,7 +1388,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1391,7 +1421,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -1424,7 +1454,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -1457,7 +1487,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -1490,7 +1520,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -1523,7 +1553,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -1556,7 +1586,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -1587,6 +1617,36 @@
       </c>
       <c r="L20" s="1" t="s">
         <v>28</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C21" s="1">
+        <f>(Ponderaciones!$A$2*E21+Ponderaciones!$B$2*F21+Ponderaciones!$C$2*G21+Ponderaciones!$D$2*H21+Ponderaciones!$E$2*I21+Ponderaciones!$F$2*J21)/SUM(Ponderaciones!$A$2:$F$2)</f>
+        <v>5.5454545454545459</v>
+      </c>
+      <c r="E21" s="1">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1">
+        <v>6</v>
+      </c>
+      <c r="G21" s="1">
+        <v>7</v>
+      </c>
+      <c r="H21" s="1">
+        <v>4</v>
+      </c>
+      <c r="I21" s="1">
+        <v>6</v>
+      </c>
+      <c r="J21" s="1">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -1614,9 +1674,9 @@
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>35</v>
       </c>
@@ -1636,7 +1696,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1.5</v>
       </c>
@@ -1663,15 +1723,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424B9EB2-A529-456D-A2FD-30C895AF32E2}">
-  <dimension ref="A1:U4"/>
+  <dimension ref="A1:AC4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="12" width="11.5703125"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" ht="45" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>62</v>
       </c>
@@ -1679,148 +1742,189 @@
         <v>63</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="N1" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="O1" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="P1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="Q1" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="G1" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="H1" s="2" t="s">
+      <c r="R1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="S1" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="U1" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="V1" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="X1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="J1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="O1" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="R1" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="S1" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="T1" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="U1" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    </row>
+    <row r="2" spans="1:29" x14ac:dyDescent="0.25">
       <c r="A2" s="1">
         <v>1</v>
       </c>
       <c r="B2" s="6">
         <v>45765</v>
       </c>
-      <c r="C2" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>95</v>
+      <c r="C2" s="1">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1">
+        <v>3</v>
       </c>
       <c r="F2" s="1">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G2" s="1">
-        <v>3</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="28.8" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="H2" s="1">
+        <v>5</v>
+      </c>
+      <c r="I2" s="1">
+        <v>7</v>
+      </c>
+      <c r="J2" s="1">
+        <v>10</v>
+      </c>
+      <c r="K2" s="1">
+        <v>19</v>
+      </c>
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="N2" s="1">
+        <v>3</v>
+      </c>
+      <c r="O2" s="1">
+        <v>3</v>
+      </c>
+      <c r="P2" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q2" s="1" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:29" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="1">
         <v>2</v>
       </c>
       <c r="B3" s="6">
         <v>45772</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>74</v>
-      </c>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1">
+      <c r="F3" s="1"/>
+      <c r="G3" s="1"/>
+      <c r="H3" s="1"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1">
         <v>1</v>
       </c>
-      <c r="G3" s="1">
+      <c r="O3" s="1">
         <v>4</v>
       </c>
-      <c r="H3" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
-      <c r="A4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="P3" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I4" s="1" t="s">
-        <v>77</v>
-      </c>
+      <c r="F4" s="1"/>
+      <c r="G4" s="1"/>
+      <c r="H4" s="1"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1829,37 +1933,4322 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE91196-1357-4179-AE3B-57209A722F5F}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="16.77734375" customWidth="1"/>
+    <col min="2" max="2" width="13" customWidth="1"/>
+    <col min="6" max="6" width="17.140625" customWidth="1"/>
+    <col min="9" max="9" width="20.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>90</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="E1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="B1" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="C1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="D1" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="I1" s="4" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F2">
+        <f>COUNTIF(Resultados!C:L,"1")</f>
         <v>1</v>
       </c>
     </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="F3">
+        <f>COUNTIF(A3,"1")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="F4">
+        <f>COUNT(A4,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="F5">
+        <f>COUNT(A5,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="F6">
+        <f>COUNT(A6,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="F7">
+        <f>COUNT(A7,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="F8">
+        <f>COUNT(A8,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="F9">
+        <f>COUNT(A9,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="F10">
+        <f>COUNT(A10,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="F11">
+        <f>COUNT(A11,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="F12">
+        <f>COUNT(A12,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <f>COUNT(A13,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="F14">
+        <f>COUNT(A14,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="F15">
+        <f>COUNT(A15,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="F16">
+        <f>COUNT(A16,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="F17">
+        <f>COUNT(A17,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="F18">
+        <f>COUNT(A18,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="F19">
+        <f>COUNT(A19,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="F20">
+        <f>COUNT(A20,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+      <c r="B21">
+        <v>2</v>
+      </c>
+      <c r="F21">
+        <f>COUNT(A21,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>1</v>
+      </c>
+      <c r="B22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <f>COUNT(A22,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>1</v>
+      </c>
+      <c r="B23">
+        <v>4</v>
+      </c>
+      <c r="F23">
+        <f>COUNT(A23,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>1</v>
+      </c>
+      <c r="B24">
+        <v>5</v>
+      </c>
+      <c r="F24">
+        <f>COUNT(A24,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+      <c r="B25">
+        <v>6</v>
+      </c>
+      <c r="F25">
+        <f>COUNT(A25,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>1</v>
+      </c>
+      <c r="B26">
+        <v>7</v>
+      </c>
+      <c r="F26">
+        <f>COUNT(A26,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>8</v>
+      </c>
+      <c r="F27">
+        <f>COUNT(A27,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>9</v>
+      </c>
+      <c r="F28">
+        <f>COUNT(A28,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>10</v>
+      </c>
+      <c r="F29">
+        <f>COUNT(A29,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>1</v>
+      </c>
+      <c r="B30">
+        <v>11</v>
+      </c>
+      <c r="F30">
+        <f>COUNT(A30,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>1</v>
+      </c>
+      <c r="B31">
+        <v>12</v>
+      </c>
+      <c r="F31">
+        <f>COUNT(A31,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>1</v>
+      </c>
+      <c r="B32">
+        <v>13</v>
+      </c>
+      <c r="F32">
+        <f>COUNT(A32,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+      <c r="B33">
+        <v>14</v>
+      </c>
+      <c r="F33">
+        <f>COUNT(A33,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>15</v>
+      </c>
+      <c r="F34">
+        <f>COUNT(A34,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>1</v>
+      </c>
+      <c r="B35">
+        <v>16</v>
+      </c>
+      <c r="F35">
+        <f>COUNT(A35,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>1</v>
+      </c>
+      <c r="B36">
+        <v>17</v>
+      </c>
+      <c r="F36">
+        <f>COUNT(A36,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+      <c r="B37">
+        <v>18</v>
+      </c>
+      <c r="F37">
+        <f>COUNT(A37,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>1</v>
+      </c>
+      <c r="B38">
+        <v>19</v>
+      </c>
+      <c r="F38">
+        <f>COUNT(A38,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>2</v>
+      </c>
+      <c r="B39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <f>COUNT(A39,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>2</v>
+      </c>
+      <c r="B40">
+        <v>3</v>
+      </c>
+      <c r="F40">
+        <f>COUNT(A40,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41">
+        <v>4</v>
+      </c>
+      <c r="F41">
+        <f>COUNT(A41,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+      <c r="B42">
+        <v>5</v>
+      </c>
+      <c r="F42">
+        <f>COUNT(A42,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>2</v>
+      </c>
+      <c r="B43">
+        <v>6</v>
+      </c>
+      <c r="F43">
+        <f>COUNT(A43,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>2</v>
+      </c>
+      <c r="B44">
+        <v>7</v>
+      </c>
+      <c r="F44">
+        <f>COUNT(A44,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>2</v>
+      </c>
+      <c r="B45">
+        <v>8</v>
+      </c>
+      <c r="F45">
+        <f>COUNT(A45,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46">
+        <v>9</v>
+      </c>
+      <c r="F46">
+        <f>COUNT(A46,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>2</v>
+      </c>
+      <c r="B47">
+        <v>10</v>
+      </c>
+      <c r="F47">
+        <f>COUNT(A47,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>2</v>
+      </c>
+      <c r="B48">
+        <v>11</v>
+      </c>
+      <c r="F48">
+        <f>COUNT(A48,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>2</v>
+      </c>
+      <c r="B49">
+        <v>12</v>
+      </c>
+      <c r="F49">
+        <f>COUNT(A49,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+      <c r="B50">
+        <v>13</v>
+      </c>
+      <c r="F50">
+        <f>COUNT(A50,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>2</v>
+      </c>
+      <c r="B51">
+        <v>14</v>
+      </c>
+      <c r="F51">
+        <f>COUNT(A51,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>2</v>
+      </c>
+      <c r="B52">
+        <v>15</v>
+      </c>
+      <c r="F52">
+        <f>COUNT(A52,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>2</v>
+      </c>
+      <c r="B53">
+        <v>16</v>
+      </c>
+      <c r="F53">
+        <f>COUNT(A53,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+      <c r="B54">
+        <v>17</v>
+      </c>
+      <c r="F54">
+        <f>COUNT(A54,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>2</v>
+      </c>
+      <c r="B55">
+        <v>18</v>
+      </c>
+      <c r="F55">
+        <f>COUNT(A55,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>2</v>
+      </c>
+      <c r="B56">
+        <v>19</v>
+      </c>
+      <c r="F56">
+        <f>COUNT(A56,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>3</v>
+      </c>
+      <c r="B57">
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <f>COUNT(A57,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>3</v>
+      </c>
+      <c r="B58">
+        <v>2</v>
+      </c>
+      <c r="F58">
+        <f>COUNT(A58,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3</v>
+      </c>
+      <c r="B59">
+        <v>4</v>
+      </c>
+      <c r="F59">
+        <f>COUNT(A59,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>3</v>
+      </c>
+      <c r="B60">
+        <v>5</v>
+      </c>
+      <c r="F60">
+        <f>COUNT(A60,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>3</v>
+      </c>
+      <c r="B61">
+        <v>6</v>
+      </c>
+      <c r="F61">
+        <f>COUNT(A61,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>3</v>
+      </c>
+      <c r="B62">
+        <v>7</v>
+      </c>
+      <c r="F62">
+        <f>COUNT(A62,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>3</v>
+      </c>
+      <c r="B63">
+        <v>8</v>
+      </c>
+      <c r="F63">
+        <f>COUNT(A63,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>3</v>
+      </c>
+      <c r="B64">
+        <v>9</v>
+      </c>
+      <c r="F64">
+        <f>COUNT(A64,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>3</v>
+      </c>
+      <c r="B65">
+        <v>10</v>
+      </c>
+      <c r="F65">
+        <f>COUNT(A65,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>3</v>
+      </c>
+      <c r="B66">
+        <v>11</v>
+      </c>
+      <c r="F66">
+        <f>COUNT(A66,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>3</v>
+      </c>
+      <c r="B67">
+        <v>12</v>
+      </c>
+      <c r="F67">
+        <f>COUNT(A67,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>3</v>
+      </c>
+      <c r="B68">
+        <v>13</v>
+      </c>
+      <c r="F68">
+        <f>COUNT(A68,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>3</v>
+      </c>
+      <c r="B69">
+        <v>14</v>
+      </c>
+      <c r="F69">
+        <f>COUNT(A69,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>3</v>
+      </c>
+      <c r="B70">
+        <v>15</v>
+      </c>
+      <c r="F70">
+        <f>COUNT(A70,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <v>3</v>
+      </c>
+      <c r="B71">
+        <v>16</v>
+      </c>
+      <c r="F71">
+        <f>COUNT(A71,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <v>3</v>
+      </c>
+      <c r="B72">
+        <v>17</v>
+      </c>
+      <c r="F72">
+        <f>COUNT(A72,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>3</v>
+      </c>
+      <c r="B73">
+        <v>18</v>
+      </c>
+      <c r="F73">
+        <f>COUNT(A73,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>3</v>
+      </c>
+      <c r="B74">
+        <v>19</v>
+      </c>
+      <c r="F74">
+        <f>COUNT(A74,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>4</v>
+      </c>
+      <c r="B75">
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <f>COUNT(A75,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>4</v>
+      </c>
+      <c r="B76">
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <f>COUNT(A76,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>4</v>
+      </c>
+      <c r="B77">
+        <v>3</v>
+      </c>
+      <c r="F77">
+        <f>COUNT(A77,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>4</v>
+      </c>
+      <c r="B78">
+        <v>5</v>
+      </c>
+      <c r="F78">
+        <f>COUNT(A78,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>4</v>
+      </c>
+      <c r="B79">
+        <v>6</v>
+      </c>
+      <c r="F79">
+        <f>COUNT(A79,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>4</v>
+      </c>
+      <c r="B80">
+        <v>7</v>
+      </c>
+      <c r="F80">
+        <f>COUNT(A80,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>4</v>
+      </c>
+      <c r="B81">
+        <v>8</v>
+      </c>
+      <c r="F81">
+        <f>COUNT(A81,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>4</v>
+      </c>
+      <c r="B82">
+        <v>9</v>
+      </c>
+      <c r="F82">
+        <f>COUNT(A82,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>4</v>
+      </c>
+      <c r="B83">
+        <v>10</v>
+      </c>
+      <c r="F83">
+        <f>COUNT(A83,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>4</v>
+      </c>
+      <c r="B84">
+        <v>11</v>
+      </c>
+      <c r="F84">
+        <f>COUNT(A84,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>4</v>
+      </c>
+      <c r="B85">
+        <v>12</v>
+      </c>
+      <c r="F85">
+        <f>COUNT(A85,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>4</v>
+      </c>
+      <c r="B86">
+        <v>13</v>
+      </c>
+      <c r="F86">
+        <f>COUNT(A86,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>4</v>
+      </c>
+      <c r="B87">
+        <v>14</v>
+      </c>
+      <c r="F87">
+        <f>COUNT(A87,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>4</v>
+      </c>
+      <c r="B88">
+        <v>15</v>
+      </c>
+      <c r="F88">
+        <f>COUNT(A88,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>4</v>
+      </c>
+      <c r="B89">
+        <v>16</v>
+      </c>
+      <c r="F89">
+        <f>COUNT(A89,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>4</v>
+      </c>
+      <c r="B90">
+        <v>17</v>
+      </c>
+      <c r="F90">
+        <f>COUNT(A90,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>4</v>
+      </c>
+      <c r="B91">
+        <v>18</v>
+      </c>
+      <c r="F91">
+        <f>COUNT(A91,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <v>4</v>
+      </c>
+      <c r="B92">
+        <v>19</v>
+      </c>
+      <c r="F92">
+        <f>COUNT(A92,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <v>5</v>
+      </c>
+      <c r="B93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <f>COUNT(A93,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>5</v>
+      </c>
+      <c r="B94">
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <f>COUNT(A94,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <v>5</v>
+      </c>
+      <c r="B95">
+        <v>3</v>
+      </c>
+      <c r="F95">
+        <f>COUNT(A95,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <v>5</v>
+      </c>
+      <c r="B96">
+        <v>4</v>
+      </c>
+      <c r="F96">
+        <f>COUNT(A96,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <v>5</v>
+      </c>
+      <c r="B97">
+        <v>6</v>
+      </c>
+      <c r="F97">
+        <f>COUNT(A97,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <v>5</v>
+      </c>
+      <c r="B98">
+        <v>7</v>
+      </c>
+      <c r="F98">
+        <f>COUNT(A98,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <v>5</v>
+      </c>
+      <c r="B99">
+        <v>8</v>
+      </c>
+      <c r="F99">
+        <f>COUNT(A99,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <v>5</v>
+      </c>
+      <c r="B100">
+        <v>9</v>
+      </c>
+      <c r="F100">
+        <f>COUNT(A100,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A101">
+        <v>5</v>
+      </c>
+      <c r="B101">
+        <v>10</v>
+      </c>
+      <c r="F101">
+        <f>COUNT(A101,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A102">
+        <v>5</v>
+      </c>
+      <c r="B102">
+        <v>11</v>
+      </c>
+      <c r="F102">
+        <f>COUNT(A102,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A103">
+        <v>5</v>
+      </c>
+      <c r="B103">
+        <v>12</v>
+      </c>
+      <c r="F103">
+        <f>COUNT(A103,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A104">
+        <v>5</v>
+      </c>
+      <c r="B104">
+        <v>13</v>
+      </c>
+      <c r="F104">
+        <f>COUNT(A104,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A105">
+        <v>5</v>
+      </c>
+      <c r="B105">
+        <v>14</v>
+      </c>
+      <c r="F105">
+        <f>COUNT(A105,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A106">
+        <v>5</v>
+      </c>
+      <c r="B106">
+        <v>15</v>
+      </c>
+      <c r="F106">
+        <f>COUNT(A106,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A107">
+        <v>5</v>
+      </c>
+      <c r="B107">
+        <v>16</v>
+      </c>
+      <c r="F107">
+        <f>COUNT(A107,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A108">
+        <v>5</v>
+      </c>
+      <c r="B108">
+        <v>17</v>
+      </c>
+      <c r="F108">
+        <f>COUNT(A108,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A109">
+        <v>5</v>
+      </c>
+      <c r="B109">
+        <v>18</v>
+      </c>
+      <c r="F109">
+        <f>COUNT(A109,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110">
+        <v>5</v>
+      </c>
+      <c r="B110">
+        <v>19</v>
+      </c>
+      <c r="F110">
+        <f>COUNT(A110,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A111">
+        <v>6</v>
+      </c>
+      <c r="B111">
+        <v>1</v>
+      </c>
+      <c r="F111">
+        <f>COUNT(A111,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A112">
+        <v>6</v>
+      </c>
+      <c r="B112">
+        <v>2</v>
+      </c>
+      <c r="F112">
+        <f>COUNT(A112,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>6</v>
+      </c>
+      <c r="B113">
+        <v>3</v>
+      </c>
+      <c r="F113">
+        <f>COUNT(A113,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>6</v>
+      </c>
+      <c r="B114">
+        <v>4</v>
+      </c>
+      <c r="F114">
+        <f>COUNT(A114,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>6</v>
+      </c>
+      <c r="B115">
+        <v>5</v>
+      </c>
+      <c r="F115">
+        <f>COUNT(A115,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>6</v>
+      </c>
+      <c r="B116">
+        <v>7</v>
+      </c>
+      <c r="F116">
+        <f>COUNT(A116,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>6</v>
+      </c>
+      <c r="B117">
+        <v>8</v>
+      </c>
+      <c r="F117">
+        <f>COUNT(A117,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>6</v>
+      </c>
+      <c r="B118">
+        <v>9</v>
+      </c>
+      <c r="F118">
+        <f>COUNT(A118,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>6</v>
+      </c>
+      <c r="B119">
+        <v>10</v>
+      </c>
+      <c r="F119">
+        <f>COUNT(A119,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>6</v>
+      </c>
+      <c r="B120">
+        <v>11</v>
+      </c>
+      <c r="F120">
+        <f>COUNT(A120,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>6</v>
+      </c>
+      <c r="B121">
+        <v>12</v>
+      </c>
+      <c r="F121">
+        <f>COUNT(A121,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>6</v>
+      </c>
+      <c r="B122">
+        <v>13</v>
+      </c>
+      <c r="F122">
+        <f>COUNT(A122,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>6</v>
+      </c>
+      <c r="B123">
+        <v>14</v>
+      </c>
+      <c r="F123">
+        <f>COUNT(A123,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>6</v>
+      </c>
+      <c r="B124">
+        <v>15</v>
+      </c>
+      <c r="F124">
+        <f>COUNT(A124,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>6</v>
+      </c>
+      <c r="B125">
+        <v>16</v>
+      </c>
+      <c r="F125">
+        <f>COUNT(A125,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>6</v>
+      </c>
+      <c r="B126">
+        <v>17</v>
+      </c>
+      <c r="F126">
+        <f>COUNT(A126,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>6</v>
+      </c>
+      <c r="B127">
+        <v>18</v>
+      </c>
+      <c r="F127">
+        <f>COUNT(A127,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>6</v>
+      </c>
+      <c r="B128">
+        <v>19</v>
+      </c>
+      <c r="F128">
+        <f>COUNT(A128,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>7</v>
+      </c>
+      <c r="B129">
+        <v>1</v>
+      </c>
+      <c r="F129">
+        <f>COUNT(A129,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>7</v>
+      </c>
+      <c r="B130">
+        <v>2</v>
+      </c>
+      <c r="F130">
+        <f>COUNT(A130,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>7</v>
+      </c>
+      <c r="B131">
+        <v>3</v>
+      </c>
+      <c r="F131">
+        <f>COUNT(A131,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>7</v>
+      </c>
+      <c r="B132">
+        <v>4</v>
+      </c>
+      <c r="F132">
+        <f>COUNT(A132,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>7</v>
+      </c>
+      <c r="B133">
+        <v>5</v>
+      </c>
+      <c r="F133">
+        <f>COUNT(A133,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>7</v>
+      </c>
+      <c r="B134">
+        <v>6</v>
+      </c>
+      <c r="F134">
+        <f>COUNT(A134,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>7</v>
+      </c>
+      <c r="B135">
+        <v>8</v>
+      </c>
+      <c r="F135">
+        <f>COUNT(A135,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>7</v>
+      </c>
+      <c r="B136">
+        <v>9</v>
+      </c>
+      <c r="F136">
+        <f>COUNT(A136,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>7</v>
+      </c>
+      <c r="B137">
+        <v>10</v>
+      </c>
+      <c r="F137">
+        <f>COUNT(A137,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>7</v>
+      </c>
+      <c r="B138">
+        <v>11</v>
+      </c>
+      <c r="F138">
+        <f>COUNT(A138,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>7</v>
+      </c>
+      <c r="B139">
+        <v>12</v>
+      </c>
+      <c r="F139">
+        <f>COUNT(A139,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>7</v>
+      </c>
+      <c r="B140">
+        <v>13</v>
+      </c>
+      <c r="F140">
+        <f>COUNT(A140,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>7</v>
+      </c>
+      <c r="B141">
+        <v>14</v>
+      </c>
+      <c r="F141">
+        <f>COUNT(A141,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>7</v>
+      </c>
+      <c r="B142">
+        <v>15</v>
+      </c>
+      <c r="F142">
+        <f>COUNT(A142,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>7</v>
+      </c>
+      <c r="B143">
+        <v>16</v>
+      </c>
+      <c r="F143">
+        <f>COUNT(A143,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>7</v>
+      </c>
+      <c r="B144">
+        <v>17</v>
+      </c>
+      <c r="F144">
+        <f>COUNT(A144,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>7</v>
+      </c>
+      <c r="B145">
+        <v>18</v>
+      </c>
+      <c r="F145">
+        <f>COUNT(A145,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>7</v>
+      </c>
+      <c r="B146">
+        <v>19</v>
+      </c>
+      <c r="F146">
+        <f>COUNT(A146,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>8</v>
+      </c>
+      <c r="B147">
+        <v>1</v>
+      </c>
+      <c r="F147">
+        <f>COUNT(A147,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>8</v>
+      </c>
+      <c r="B148">
+        <v>2</v>
+      </c>
+      <c r="F148">
+        <f>COUNT(A148,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>8</v>
+      </c>
+      <c r="B149">
+        <v>3</v>
+      </c>
+      <c r="F149">
+        <f>COUNT(A149,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>8</v>
+      </c>
+      <c r="B150">
+        <v>4</v>
+      </c>
+      <c r="F150">
+        <f>COUNT(A150,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>8</v>
+      </c>
+      <c r="B151">
+        <v>5</v>
+      </c>
+      <c r="F151">
+        <f>COUNT(A151,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>8</v>
+      </c>
+      <c r="B152">
+        <v>6</v>
+      </c>
+      <c r="F152">
+        <f>COUNT(A152,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>8</v>
+      </c>
+      <c r="B153">
+        <v>7</v>
+      </c>
+      <c r="F153">
+        <f>COUNT(A153,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>8</v>
+      </c>
+      <c r="B154">
+        <v>9</v>
+      </c>
+      <c r="F154">
+        <f>COUNT(A154,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>8</v>
+      </c>
+      <c r="B155">
+        <v>10</v>
+      </c>
+      <c r="F155">
+        <f>COUNT(A155,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>8</v>
+      </c>
+      <c r="B156">
+        <v>11</v>
+      </c>
+      <c r="F156">
+        <f>COUNT(A156,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>8</v>
+      </c>
+      <c r="B157">
+        <v>12</v>
+      </c>
+      <c r="F157">
+        <f>COUNT(A157,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>8</v>
+      </c>
+      <c r="B158">
+        <v>13</v>
+      </c>
+      <c r="F158">
+        <f>COUNT(A158,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>8</v>
+      </c>
+      <c r="B159">
+        <v>14</v>
+      </c>
+      <c r="F159">
+        <f>COUNT(A159,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>8</v>
+      </c>
+      <c r="B160">
+        <v>15</v>
+      </c>
+      <c r="F160">
+        <f>COUNT(A160,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>8</v>
+      </c>
+      <c r="B161">
+        <v>16</v>
+      </c>
+      <c r="F161">
+        <f>COUNT(A161,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>8</v>
+      </c>
+      <c r="B162">
+        <v>17</v>
+      </c>
+      <c r="F162">
+        <f>COUNT(A162,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>8</v>
+      </c>
+      <c r="B163">
+        <v>18</v>
+      </c>
+      <c r="F163">
+        <f>COUNT(A163,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>8</v>
+      </c>
+      <c r="B164">
+        <v>19</v>
+      </c>
+      <c r="F164">
+        <f>COUNT(A164,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>9</v>
+      </c>
+      <c r="B165">
+        <v>1</v>
+      </c>
+      <c r="F165">
+        <f>COUNT(A165,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>9</v>
+      </c>
+      <c r="B166">
+        <v>2</v>
+      </c>
+      <c r="F166">
+        <f>COUNT(A166,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>9</v>
+      </c>
+      <c r="B167">
+        <v>3</v>
+      </c>
+      <c r="F167">
+        <f>COUNT(A167,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>9</v>
+      </c>
+      <c r="B168">
+        <v>4</v>
+      </c>
+      <c r="F168">
+        <f>COUNT(A168,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>9</v>
+      </c>
+      <c r="B169">
+        <v>5</v>
+      </c>
+      <c r="F169">
+        <f>COUNT(A169,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>9</v>
+      </c>
+      <c r="B170">
+        <v>6</v>
+      </c>
+      <c r="F170">
+        <f>COUNT(A170,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>9</v>
+      </c>
+      <c r="B171">
+        <v>7</v>
+      </c>
+      <c r="F171">
+        <f>COUNT(A171,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>9</v>
+      </c>
+      <c r="B172">
+        <v>8</v>
+      </c>
+      <c r="F172">
+        <f>COUNT(A172,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>9</v>
+      </c>
+      <c r="B173">
+        <v>10</v>
+      </c>
+      <c r="F173">
+        <f>COUNT(A173,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>9</v>
+      </c>
+      <c r="B174">
+        <v>11</v>
+      </c>
+      <c r="F174">
+        <f>COUNT(A174,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>9</v>
+      </c>
+      <c r="B175">
+        <v>12</v>
+      </c>
+      <c r="F175">
+        <f>COUNT(A175,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>9</v>
+      </c>
+      <c r="B176">
+        <v>13</v>
+      </c>
+      <c r="F176">
+        <f>COUNT(A176,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>9</v>
+      </c>
+      <c r="B177">
+        <v>14</v>
+      </c>
+      <c r="F177">
+        <f>COUNT(A177,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>9</v>
+      </c>
+      <c r="B178">
+        <v>15</v>
+      </c>
+      <c r="F178">
+        <f>COUNT(A178,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>9</v>
+      </c>
+      <c r="B179">
+        <v>16</v>
+      </c>
+      <c r="F179">
+        <f>COUNT(A179,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="180" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>9</v>
+      </c>
+      <c r="B180">
+        <v>17</v>
+      </c>
+      <c r="F180">
+        <f>COUNT(A180,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="181" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>9</v>
+      </c>
+      <c r="B181">
+        <v>18</v>
+      </c>
+      <c r="F181">
+        <f>COUNT(A181,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="182" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>9</v>
+      </c>
+      <c r="B182">
+        <v>19</v>
+      </c>
+      <c r="F182">
+        <f>COUNT(A182,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="183" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>10</v>
+      </c>
+      <c r="B183">
+        <v>1</v>
+      </c>
+      <c r="F183">
+        <f>COUNT(A183,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="184" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>10</v>
+      </c>
+      <c r="B184">
+        <v>2</v>
+      </c>
+      <c r="F184">
+        <f>COUNT(A184,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="185" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>10</v>
+      </c>
+      <c r="B185">
+        <v>3</v>
+      </c>
+      <c r="F185">
+        <f>COUNT(A185,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="186" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>10</v>
+      </c>
+      <c r="B186">
+        <v>4</v>
+      </c>
+      <c r="F186">
+        <f>COUNT(A186,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="187" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>10</v>
+      </c>
+      <c r="B187">
+        <v>5</v>
+      </c>
+      <c r="F187">
+        <f>COUNT(A187,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="188" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>10</v>
+      </c>
+      <c r="B188">
+        <v>6</v>
+      </c>
+      <c r="F188">
+        <f>COUNT(A188,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="189" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>10</v>
+      </c>
+      <c r="B189">
+        <v>7</v>
+      </c>
+      <c r="F189">
+        <f>COUNT(A189,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="190" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>10</v>
+      </c>
+      <c r="B190">
+        <v>8</v>
+      </c>
+      <c r="F190">
+        <f>COUNT(A190,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="191" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>10</v>
+      </c>
+      <c r="B191">
+        <v>9</v>
+      </c>
+      <c r="F191">
+        <f>COUNT(A191,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="192" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>10</v>
+      </c>
+      <c r="B192">
+        <v>11</v>
+      </c>
+      <c r="F192">
+        <f>COUNT(A192,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="193" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>10</v>
+      </c>
+      <c r="B193">
+        <v>12</v>
+      </c>
+      <c r="F193">
+        <f>COUNT(A193,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="194" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>10</v>
+      </c>
+      <c r="B194">
+        <v>13</v>
+      </c>
+      <c r="F194">
+        <f>COUNT(A194,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="195" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>10</v>
+      </c>
+      <c r="B195">
+        <v>14</v>
+      </c>
+      <c r="F195">
+        <f>COUNT(A195,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="196" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>10</v>
+      </c>
+      <c r="B196">
+        <v>15</v>
+      </c>
+      <c r="F196">
+        <f>COUNT(A196,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="197" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>10</v>
+      </c>
+      <c r="B197">
+        <v>16</v>
+      </c>
+      <c r="F197">
+        <f>COUNT(A197,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="198" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>10</v>
+      </c>
+      <c r="B198">
+        <v>17</v>
+      </c>
+      <c r="F198">
+        <f>COUNT(A198,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="199" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>10</v>
+      </c>
+      <c r="B199">
+        <v>18</v>
+      </c>
+      <c r="F199">
+        <f>COUNT(A199,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="200" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>10</v>
+      </c>
+      <c r="B200">
+        <v>19</v>
+      </c>
+      <c r="F200">
+        <f>COUNT(A200,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="201" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>11</v>
+      </c>
+      <c r="B201">
+        <v>1</v>
+      </c>
+      <c r="F201">
+        <f>COUNT(A201,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="202" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>11</v>
+      </c>
+      <c r="B202">
+        <v>2</v>
+      </c>
+      <c r="F202">
+        <f>COUNT(A202,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="203" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>11</v>
+      </c>
+      <c r="B203">
+        <v>3</v>
+      </c>
+      <c r="F203">
+        <f>COUNT(A203,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="204" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>11</v>
+      </c>
+      <c r="B204">
+        <v>4</v>
+      </c>
+      <c r="F204">
+        <f>COUNT(A204,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="205" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>11</v>
+      </c>
+      <c r="B205">
+        <v>5</v>
+      </c>
+      <c r="F205">
+        <f>COUNT(A205,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="206" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>11</v>
+      </c>
+      <c r="B206">
+        <v>6</v>
+      </c>
+      <c r="F206">
+        <f>COUNT(A206,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="207" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>11</v>
+      </c>
+      <c r="B207">
+        <v>7</v>
+      </c>
+      <c r="F207">
+        <f>COUNT(A207,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="208" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>11</v>
+      </c>
+      <c r="B208">
+        <v>8</v>
+      </c>
+      <c r="F208">
+        <f>COUNT(A208,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="209" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>11</v>
+      </c>
+      <c r="B209">
+        <v>9</v>
+      </c>
+      <c r="F209">
+        <f>COUNT(A209,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="210" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>11</v>
+      </c>
+      <c r="B210">
+        <v>10</v>
+      </c>
+      <c r="F210">
+        <f>COUNT(A210,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="211" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>11</v>
+      </c>
+      <c r="B211">
+        <v>12</v>
+      </c>
+      <c r="F211">
+        <f>COUNT(A211,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="212" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>11</v>
+      </c>
+      <c r="B212">
+        <v>13</v>
+      </c>
+      <c r="F212">
+        <f>COUNT(A212,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="213" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>11</v>
+      </c>
+      <c r="B213">
+        <v>14</v>
+      </c>
+      <c r="F213">
+        <f>COUNT(A213,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="214" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>11</v>
+      </c>
+      <c r="B214">
+        <v>15</v>
+      </c>
+      <c r="F214">
+        <f>COUNT(A214,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="215" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>11</v>
+      </c>
+      <c r="B215">
+        <v>16</v>
+      </c>
+      <c r="F215">
+        <f>COUNT(A215,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="216" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>11</v>
+      </c>
+      <c r="B216">
+        <v>17</v>
+      </c>
+      <c r="F216">
+        <f>COUNT(A216,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="217" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>11</v>
+      </c>
+      <c r="B217">
+        <v>18</v>
+      </c>
+      <c r="F217">
+        <f>COUNT(A217,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="218" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>11</v>
+      </c>
+      <c r="B218">
+        <v>19</v>
+      </c>
+      <c r="F218">
+        <f>COUNT(A218,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="219" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>12</v>
+      </c>
+      <c r="B219">
+        <v>1</v>
+      </c>
+      <c r="F219">
+        <f>COUNT(A219,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="220" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>12</v>
+      </c>
+      <c r="B220">
+        <v>2</v>
+      </c>
+      <c r="F220">
+        <f>COUNT(A220,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="221" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>12</v>
+      </c>
+      <c r="B221">
+        <v>3</v>
+      </c>
+      <c r="F221">
+        <f>COUNT(A221,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="222" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>12</v>
+      </c>
+      <c r="B222">
+        <v>4</v>
+      </c>
+      <c r="F222">
+        <f>COUNT(A222,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="223" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>12</v>
+      </c>
+      <c r="B223">
+        <v>5</v>
+      </c>
+      <c r="F223">
+        <f>COUNT(A223,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="224" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>12</v>
+      </c>
+      <c r="B224">
+        <v>6</v>
+      </c>
+      <c r="F224">
+        <f>COUNT(A224,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="225" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>12</v>
+      </c>
+      <c r="B225">
+        <v>7</v>
+      </c>
+      <c r="F225">
+        <f>COUNT(A225,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="226" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>12</v>
+      </c>
+      <c r="B226">
+        <v>8</v>
+      </c>
+      <c r="F226">
+        <f>COUNT(A226,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="227" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>12</v>
+      </c>
+      <c r="B227">
+        <v>9</v>
+      </c>
+      <c r="F227">
+        <f>COUNT(A227,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="228" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>12</v>
+      </c>
+      <c r="B228">
+        <v>10</v>
+      </c>
+      <c r="F228">
+        <f>COUNT(A228,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="229" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>12</v>
+      </c>
+      <c r="B229">
+        <v>11</v>
+      </c>
+      <c r="F229">
+        <f>COUNT(A229,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="230" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>12</v>
+      </c>
+      <c r="B230">
+        <v>13</v>
+      </c>
+      <c r="F230">
+        <f>COUNT(A230,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="231" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>12</v>
+      </c>
+      <c r="B231">
+        <v>14</v>
+      </c>
+      <c r="F231">
+        <f>COUNT(A231,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="232" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>12</v>
+      </c>
+      <c r="B232">
+        <v>15</v>
+      </c>
+      <c r="F232">
+        <f>COUNT(A232,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="233" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>12</v>
+      </c>
+      <c r="B233">
+        <v>16</v>
+      </c>
+      <c r="F233">
+        <f>COUNT(A233,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="234" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>12</v>
+      </c>
+      <c r="B234">
+        <v>17</v>
+      </c>
+      <c r="F234">
+        <f>COUNT(A234,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="235" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>12</v>
+      </c>
+      <c r="B235">
+        <v>18</v>
+      </c>
+      <c r="F235">
+        <f>COUNT(A235,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="236" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>12</v>
+      </c>
+      <c r="B236">
+        <v>19</v>
+      </c>
+      <c r="F236">
+        <f>COUNT(A236,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="237" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>13</v>
+      </c>
+      <c r="B237">
+        <v>1</v>
+      </c>
+      <c r="F237">
+        <f>COUNT(A237,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="238" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>13</v>
+      </c>
+      <c r="B238">
+        <v>2</v>
+      </c>
+      <c r="F238">
+        <f>COUNT(A238,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="239" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>13</v>
+      </c>
+      <c r="B239">
+        <v>3</v>
+      </c>
+      <c r="F239">
+        <f>COUNT(A239,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="240" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>13</v>
+      </c>
+      <c r="B240">
+        <v>4</v>
+      </c>
+      <c r="F240">
+        <f>COUNT(A240,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="241" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>13</v>
+      </c>
+      <c r="B241">
+        <v>5</v>
+      </c>
+      <c r="F241">
+        <f>COUNT(A241,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="242" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>13</v>
+      </c>
+      <c r="B242">
+        <v>6</v>
+      </c>
+      <c r="F242">
+        <f>COUNT(A242,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="243" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>13</v>
+      </c>
+      <c r="B243">
+        <v>7</v>
+      </c>
+      <c r="F243">
+        <f>COUNT(A243,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="244" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>13</v>
+      </c>
+      <c r="B244">
+        <v>8</v>
+      </c>
+      <c r="F244">
+        <f>COUNT(A244,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="245" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>13</v>
+      </c>
+      <c r="B245">
+        <v>9</v>
+      </c>
+      <c r="F245">
+        <f>COUNT(A245,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="246" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>13</v>
+      </c>
+      <c r="B246">
+        <v>10</v>
+      </c>
+      <c r="F246">
+        <f>COUNT(A246,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="247" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>13</v>
+      </c>
+      <c r="B247">
+        <v>11</v>
+      </c>
+      <c r="F247">
+        <f>COUNT(A247,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="248" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>13</v>
+      </c>
+      <c r="B248">
+        <v>12</v>
+      </c>
+      <c r="F248">
+        <f>COUNT(A248,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>13</v>
+      </c>
+      <c r="B249">
+        <v>14</v>
+      </c>
+      <c r="F249">
+        <f>COUNT(A249,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="250" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>13</v>
+      </c>
+      <c r="B250">
+        <v>15</v>
+      </c>
+      <c r="F250">
+        <f>COUNT(A250,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="251" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>13</v>
+      </c>
+      <c r="B251">
+        <v>16</v>
+      </c>
+      <c r="F251">
+        <f>COUNT(A251,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="252" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>13</v>
+      </c>
+      <c r="B252">
+        <v>17</v>
+      </c>
+      <c r="F252">
+        <f>COUNT(A252,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="253" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>13</v>
+      </c>
+      <c r="B253">
+        <v>18</v>
+      </c>
+      <c r="F253">
+        <f>COUNT(A253,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="254" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>13</v>
+      </c>
+      <c r="B254">
+        <v>19</v>
+      </c>
+      <c r="F254">
+        <f>COUNT(A254,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="255" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>14</v>
+      </c>
+      <c r="B255">
+        <v>1</v>
+      </c>
+      <c r="F255">
+        <f>COUNT(A255,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="256" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>14</v>
+      </c>
+      <c r="B256">
+        <v>2</v>
+      </c>
+      <c r="F256">
+        <f>COUNT(A256,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="257" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>14</v>
+      </c>
+      <c r="B257">
+        <v>3</v>
+      </c>
+      <c r="F257">
+        <f>COUNT(A257,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="258" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>14</v>
+      </c>
+      <c r="B258">
+        <v>4</v>
+      </c>
+      <c r="F258">
+        <f>COUNT(A258,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="259" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>14</v>
+      </c>
+      <c r="B259">
+        <v>5</v>
+      </c>
+      <c r="F259">
+        <f>COUNT(A259,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="260" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>14</v>
+      </c>
+      <c r="B260">
+        <v>6</v>
+      </c>
+      <c r="F260">
+        <f>COUNT(A260,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="261" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>14</v>
+      </c>
+      <c r="B261">
+        <v>7</v>
+      </c>
+      <c r="F261">
+        <f>COUNT(A261,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="262" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>14</v>
+      </c>
+      <c r="B262">
+        <v>8</v>
+      </c>
+      <c r="F262">
+        <f>COUNT(A262,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="263" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>14</v>
+      </c>
+      <c r="B263">
+        <v>9</v>
+      </c>
+      <c r="F263">
+        <f>COUNT(A263,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="264" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>14</v>
+      </c>
+      <c r="B264">
+        <v>10</v>
+      </c>
+      <c r="F264">
+        <f>COUNT(A264,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="265" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>14</v>
+      </c>
+      <c r="B265">
+        <v>11</v>
+      </c>
+      <c r="F265">
+        <f>COUNT(A265,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="266" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>14</v>
+      </c>
+      <c r="B266">
+        <v>12</v>
+      </c>
+      <c r="F266">
+        <f>COUNT(A266,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="267" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>14</v>
+      </c>
+      <c r="B267">
+        <v>13</v>
+      </c>
+      <c r="F267">
+        <f>COUNT(A267,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="268" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>14</v>
+      </c>
+      <c r="B268">
+        <v>15</v>
+      </c>
+      <c r="F268">
+        <f>COUNT(A268,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="269" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>14</v>
+      </c>
+      <c r="B269">
+        <v>16</v>
+      </c>
+      <c r="F269">
+        <f>COUNT(A269,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="270" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>14</v>
+      </c>
+      <c r="B270">
+        <v>17</v>
+      </c>
+      <c r="F270">
+        <f>COUNT(A270,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="271" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>14</v>
+      </c>
+      <c r="B271">
+        <v>18</v>
+      </c>
+      <c r="F271">
+        <f>COUNT(A271,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="272" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>14</v>
+      </c>
+      <c r="B272">
+        <v>19</v>
+      </c>
+      <c r="F272">
+        <f>COUNT(A272,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="273" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>15</v>
+      </c>
+      <c r="B273">
+        <v>1</v>
+      </c>
+      <c r="F273">
+        <f>COUNT(A273,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="274" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>15</v>
+      </c>
+      <c r="B274">
+        <v>2</v>
+      </c>
+      <c r="F274">
+        <f>COUNT(A274,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="275" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>15</v>
+      </c>
+      <c r="B275">
+        <v>3</v>
+      </c>
+      <c r="F275">
+        <f>COUNT(A275,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="276" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>15</v>
+      </c>
+      <c r="B276">
+        <v>4</v>
+      </c>
+      <c r="F276">
+        <f>COUNT(A276,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="277" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>15</v>
+      </c>
+      <c r="B277">
+        <v>5</v>
+      </c>
+      <c r="F277">
+        <f>COUNT(A277,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="278" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>15</v>
+      </c>
+      <c r="B278">
+        <v>6</v>
+      </c>
+      <c r="F278">
+        <f>COUNT(A278,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="279" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>15</v>
+      </c>
+      <c r="B279">
+        <v>7</v>
+      </c>
+      <c r="F279">
+        <f>COUNT(A279,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="280" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>15</v>
+      </c>
+      <c r="B280">
+        <v>8</v>
+      </c>
+      <c r="F280">
+        <f>COUNT(A280,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="281" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>15</v>
+      </c>
+      <c r="B281">
+        <v>9</v>
+      </c>
+      <c r="F281">
+        <f>COUNT(A281,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="282" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>15</v>
+      </c>
+      <c r="B282">
+        <v>10</v>
+      </c>
+      <c r="F282">
+        <f>COUNT(A282,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="283" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>15</v>
+      </c>
+      <c r="B283">
+        <v>11</v>
+      </c>
+      <c r="F283">
+        <f>COUNT(A283,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="284" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>15</v>
+      </c>
+      <c r="B284">
+        <v>12</v>
+      </c>
+      <c r="F284">
+        <f>COUNT(A284,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="285" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>15</v>
+      </c>
+      <c r="B285">
+        <v>13</v>
+      </c>
+      <c r="F285">
+        <f>COUNT(A285,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="286" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>15</v>
+      </c>
+      <c r="B286">
+        <v>14</v>
+      </c>
+      <c r="F286">
+        <f>COUNT(A286,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="287" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>15</v>
+      </c>
+      <c r="B287">
+        <v>16</v>
+      </c>
+      <c r="F287">
+        <f>COUNT(A287,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="288" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>15</v>
+      </c>
+      <c r="B288">
+        <v>17</v>
+      </c>
+      <c r="F288">
+        <f>COUNT(A288,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="289" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>15</v>
+      </c>
+      <c r="B289">
+        <v>18</v>
+      </c>
+      <c r="F289">
+        <f>COUNT(A289,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="290" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>15</v>
+      </c>
+      <c r="B290">
+        <v>19</v>
+      </c>
+      <c r="F290">
+        <f>COUNT(A290,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="291" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>16</v>
+      </c>
+      <c r="B291">
+        <v>1</v>
+      </c>
+      <c r="F291">
+        <f>COUNT(A291,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="292" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>16</v>
+      </c>
+      <c r="B292">
+        <v>2</v>
+      </c>
+      <c r="F292">
+        <f>COUNT(A292,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="293" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>16</v>
+      </c>
+      <c r="B293">
+        <v>3</v>
+      </c>
+      <c r="F293">
+        <f>COUNT(A293,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="294" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>16</v>
+      </c>
+      <c r="B294">
+        <v>4</v>
+      </c>
+      <c r="F294">
+        <f>COUNT(A294,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="295" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>16</v>
+      </c>
+      <c r="B295">
+        <v>5</v>
+      </c>
+      <c r="F295">
+        <f>COUNT(A295,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="296" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>16</v>
+      </c>
+      <c r="B296">
+        <v>6</v>
+      </c>
+      <c r="F296">
+        <f>COUNT(A296,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="297" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>16</v>
+      </c>
+      <c r="B297">
+        <v>7</v>
+      </c>
+      <c r="F297">
+        <f>COUNT(A297,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="298" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>16</v>
+      </c>
+      <c r="B298">
+        <v>8</v>
+      </c>
+      <c r="F298">
+        <f>COUNT(A298,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="299" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>16</v>
+      </c>
+      <c r="B299">
+        <v>9</v>
+      </c>
+      <c r="F299">
+        <f>COUNT(A299,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="300" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>16</v>
+      </c>
+      <c r="B300">
+        <v>10</v>
+      </c>
+      <c r="F300">
+        <f>COUNT(A300,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="301" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>16</v>
+      </c>
+      <c r="B301">
+        <v>11</v>
+      </c>
+      <c r="F301">
+        <f>COUNT(A301,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="302" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>16</v>
+      </c>
+      <c r="B302">
+        <v>12</v>
+      </c>
+      <c r="F302">
+        <f>COUNT(A302,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="303" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>16</v>
+      </c>
+      <c r="B303">
+        <v>13</v>
+      </c>
+      <c r="F303">
+        <f>COUNT(A303,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="304" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>16</v>
+      </c>
+      <c r="B304">
+        <v>14</v>
+      </c>
+      <c r="F304">
+        <f>COUNT(A304,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="305" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>16</v>
+      </c>
+      <c r="B305">
+        <v>15</v>
+      </c>
+      <c r="F305">
+        <f>COUNT(A305,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="306" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>16</v>
+      </c>
+      <c r="B306">
+        <v>17</v>
+      </c>
+      <c r="F306">
+        <f>COUNT(A306,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="307" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>16</v>
+      </c>
+      <c r="B307">
+        <v>18</v>
+      </c>
+      <c r="F307">
+        <f>COUNT(A307,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="308" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>16</v>
+      </c>
+      <c r="B308">
+        <v>19</v>
+      </c>
+      <c r="F308">
+        <f>COUNT(A308,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="309" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>17</v>
+      </c>
+      <c r="B309">
+        <v>1</v>
+      </c>
+      <c r="F309">
+        <f>COUNT(A309,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="310" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>17</v>
+      </c>
+      <c r="B310">
+        <v>2</v>
+      </c>
+      <c r="F310">
+        <f>COUNT(A310,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="311" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>17</v>
+      </c>
+      <c r="B311">
+        <v>3</v>
+      </c>
+      <c r="F311">
+        <f>COUNT(A311,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="312" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>17</v>
+      </c>
+      <c r="B312">
+        <v>4</v>
+      </c>
+      <c r="F312">
+        <f>COUNT(A312,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="313" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>17</v>
+      </c>
+      <c r="B313">
+        <v>5</v>
+      </c>
+      <c r="F313">
+        <f>COUNT(A313,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="314" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>17</v>
+      </c>
+      <c r="B314">
+        <v>6</v>
+      </c>
+      <c r="F314">
+        <f>COUNT(A314,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="315" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>17</v>
+      </c>
+      <c r="B315">
+        <v>7</v>
+      </c>
+      <c r="F315">
+        <f>COUNT(A315,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="316" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>17</v>
+      </c>
+      <c r="B316">
+        <v>8</v>
+      </c>
+      <c r="F316">
+        <f>COUNT(A316,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="317" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>17</v>
+      </c>
+      <c r="B317">
+        <v>9</v>
+      </c>
+      <c r="F317">
+        <f>COUNT(A317,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="318" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>17</v>
+      </c>
+      <c r="B318">
+        <v>10</v>
+      </c>
+      <c r="F318">
+        <f>COUNT(A318,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="319" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>17</v>
+      </c>
+      <c r="B319">
+        <v>11</v>
+      </c>
+      <c r="F319">
+        <f>COUNT(A319,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="320" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>17</v>
+      </c>
+      <c r="B320">
+        <v>12</v>
+      </c>
+      <c r="F320">
+        <f>COUNT(A320,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="321" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>17</v>
+      </c>
+      <c r="B321">
+        <v>13</v>
+      </c>
+      <c r="F321">
+        <f>COUNT(A321,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="322" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>17</v>
+      </c>
+      <c r="B322">
+        <v>14</v>
+      </c>
+      <c r="F322">
+        <f>COUNT(A322,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="323" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>17</v>
+      </c>
+      <c r="B323">
+        <v>15</v>
+      </c>
+      <c r="F323">
+        <f>COUNT(A323,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="324" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>17</v>
+      </c>
+      <c r="B324">
+        <v>16</v>
+      </c>
+      <c r="F324">
+        <f>COUNT(A324,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="325" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>17</v>
+      </c>
+      <c r="B325">
+        <v>18</v>
+      </c>
+      <c r="F325">
+        <f>COUNT(A325,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="326" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>17</v>
+      </c>
+      <c r="B326">
+        <v>19</v>
+      </c>
+      <c r="F326">
+        <f>COUNT(A326,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="327" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>18</v>
+      </c>
+      <c r="B327">
+        <v>1</v>
+      </c>
+      <c r="F327">
+        <f>COUNT(A327,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="328" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>18</v>
+      </c>
+      <c r="B328">
+        <v>2</v>
+      </c>
+      <c r="F328">
+        <f>COUNT(A328,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="329" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>18</v>
+      </c>
+      <c r="B329">
+        <v>3</v>
+      </c>
+      <c r="F329">
+        <f>COUNT(A329,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="330" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>18</v>
+      </c>
+      <c r="B330">
+        <v>4</v>
+      </c>
+      <c r="F330">
+        <f>COUNT(A330,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="331" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>18</v>
+      </c>
+      <c r="B331">
+        <v>5</v>
+      </c>
+      <c r="F331">
+        <f>COUNT(A331,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="332" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>18</v>
+      </c>
+      <c r="B332">
+        <v>6</v>
+      </c>
+      <c r="F332">
+        <f>COUNT(A332,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="333" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>18</v>
+      </c>
+      <c r="B333">
+        <v>7</v>
+      </c>
+      <c r="F333">
+        <f>COUNT(A333,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="334" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>18</v>
+      </c>
+      <c r="B334">
+        <v>8</v>
+      </c>
+      <c r="F334">
+        <f>COUNT(A334,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="335" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>18</v>
+      </c>
+      <c r="B335">
+        <v>9</v>
+      </c>
+      <c r="F335">
+        <f>COUNT(A335,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="336" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>18</v>
+      </c>
+      <c r="B336">
+        <v>10</v>
+      </c>
+      <c r="F336">
+        <f>COUNT(A336,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="337" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>18</v>
+      </c>
+      <c r="B337">
+        <v>11</v>
+      </c>
+      <c r="F337">
+        <f>COUNT(A337,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="338" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>18</v>
+      </c>
+      <c r="B338">
+        <v>12</v>
+      </c>
+      <c r="F338">
+        <f>COUNT(A338,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="339" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>18</v>
+      </c>
+      <c r="B339">
+        <v>13</v>
+      </c>
+      <c r="F339">
+        <f>COUNT(A339,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="340" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>18</v>
+      </c>
+      <c r="B340">
+        <v>14</v>
+      </c>
+      <c r="F340">
+        <f>COUNT(A340,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="341" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>18</v>
+      </c>
+      <c r="B341">
+        <v>15</v>
+      </c>
+      <c r="F341">
+        <f>COUNT(A341,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>18</v>
+      </c>
+      <c r="B342">
+        <v>16</v>
+      </c>
+      <c r="F342">
+        <f>COUNT(A342,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>18</v>
+      </c>
+      <c r="B343">
+        <v>17</v>
+      </c>
+      <c r="F343">
+        <f>COUNT(A343,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>18</v>
+      </c>
+      <c r="B344">
+        <v>19</v>
+      </c>
+      <c r="F344">
+        <f>COUNT(A344,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>19</v>
+      </c>
+      <c r="B345">
+        <v>1</v>
+      </c>
+      <c r="F345">
+        <f>COUNT(A345,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>19</v>
+      </c>
+      <c r="B346">
+        <v>2</v>
+      </c>
+      <c r="F346">
+        <f>COUNT(A346,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>19</v>
+      </c>
+      <c r="B347">
+        <v>3</v>
+      </c>
+      <c r="F347">
+        <f>COUNT(A347,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>19</v>
+      </c>
+      <c r="B348">
+        <v>4</v>
+      </c>
+      <c r="F348">
+        <f>COUNT(A348,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>19</v>
+      </c>
+      <c r="B349">
+        <v>5</v>
+      </c>
+      <c r="F349">
+        <f>COUNT(A349,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>19</v>
+      </c>
+      <c r="B350">
+        <v>6</v>
+      </c>
+      <c r="F350">
+        <f>COUNT(A350,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>19</v>
+      </c>
+      <c r="B351">
+        <v>7</v>
+      </c>
+      <c r="F351">
+        <f>COUNT(A351,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>19</v>
+      </c>
+      <c r="B352">
+        <v>8</v>
+      </c>
+      <c r="F352">
+        <f>COUNT(A352,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>19</v>
+      </c>
+      <c r="B353">
+        <v>9</v>
+      </c>
+      <c r="F353">
+        <f>COUNT(A353,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>19</v>
+      </c>
+      <c r="B354">
+        <v>10</v>
+      </c>
+      <c r="F354">
+        <f>COUNT(A354,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>19</v>
+      </c>
+      <c r="B355">
+        <v>11</v>
+      </c>
+      <c r="F355">
+        <f>COUNT(A355,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>19</v>
+      </c>
+      <c r="B356">
+        <v>12</v>
+      </c>
+      <c r="F356">
+        <f>COUNT(A356,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>19</v>
+      </c>
+      <c r="B357">
+        <v>13</v>
+      </c>
+      <c r="F357">
+        <f>COUNT(A357,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>19</v>
+      </c>
+      <c r="B358">
+        <v>14</v>
+      </c>
+      <c r="F358">
+        <f>COUNT(A358,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>19</v>
+      </c>
+      <c r="B359">
+        <v>15</v>
+      </c>
+      <c r="F359">
+        <f>COUNT(A359,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>19</v>
+      </c>
+      <c r="B360">
+        <v>16</v>
+      </c>
+      <c r="F360">
+        <f>COUNT(A360,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>19</v>
+      </c>
+      <c r="B361">
+        <v>17</v>
+      </c>
+      <c r="F361">
+        <f>COUNT(A361,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>19</v>
+      </c>
+      <c r="B362">
+        <v>18</v>
+      </c>
+      <c r="F362">
+        <f>COUNT(A362,Resultados!J:L)-1</f>
+        <v>3</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -1872,14 +6261,14 @@
       <selection activeCell="F5" sqref="F5:F10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.44140625" customWidth="1"/>
-    <col min="4" max="4" width="55.44140625" customWidth="1"/>
-    <col min="6" max="6" width="68.5546875" customWidth="1"/>
+    <col min="3" max="3" width="15.42578125" customWidth="1"/>
+    <col min="4" max="4" width="55.42578125" customWidth="1"/>
+    <col min="6" max="6" width="68.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="3:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:6" x14ac:dyDescent="0.25">
       <c r="C4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1887,7 +6276,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C5" s="3">
         <v>10</v>
       </c>
@@ -1898,7 +6287,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C6" s="3">
         <v>9</v>
       </c>
@@ -1909,7 +6298,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="7" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C7" s="3">
         <v>8</v>
       </c>
@@ -1920,7 +6309,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C8" s="3">
         <v>7</v>
       </c>
@@ -1931,7 +6320,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C9" s="3">
         <v>6</v>
       </c>
@@ -1942,7 +6331,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C10" s="3">
         <v>5</v>
       </c>
@@ -1953,7 +6342,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C11" s="3">
         <v>4</v>
       </c>
@@ -1961,7 +6350,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C12" s="3">
         <v>3</v>
       </c>
@@ -1969,7 +6358,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C13" s="3">
         <v>2</v>
       </c>
@@ -1977,7 +6366,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="14" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:6" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C14" s="3">
         <v>1</v>
       </c>

--- a/Hola.xlsx
+++ b/Hola.xlsx
@@ -8,16 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cmc99\Desktop\Juegos\Equilibrador de equipos\Aplicación\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8DE7AC0-1C97-48ED-B826-CF55BF6DC33C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2FD18E6D-562B-4F64-9D24-7F105FECCC4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{20DD6167-8357-4DB5-A000-07A6952B8822}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" activeTab="3" xr2:uid="{20DD6167-8357-4DB5-A000-07A6952B8822}"/>
   </bookViews>
   <sheets>
     <sheet name="Jugadores" sheetId="1" r:id="rId1"/>
     <sheet name="Ponderaciones" sheetId="3" r:id="rId2"/>
     <sheet name="Resultados" sheetId="4" r:id="rId3"/>
-    <sheet name="Matriz Sinergias" sheetId="5" r:id="rId4"/>
-    <sheet name="Leyenda" sheetId="2" r:id="rId5"/>
+    <sheet name="Goleadores" sheetId="6" r:id="rId4"/>
+    <sheet name="Matriz Sinergias" sheetId="5" r:id="rId5"/>
+    <sheet name="Leyenda" sheetId="2" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,8 +40,30 @@
 </workbook>
 </file>
 
+<file path=xl/metadata.xml><?xml version="1.0" encoding="utf-8"?>
+<metadata xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:xda="http://schemas.microsoft.com/office/spreadsheetml/2017/dynamicarray">
+  <metadataTypes count="1">
+    <metadataType name="XLDAPR" minSupportedVersion="120000" copy="1" pasteAll="1" pasteValues="1" merge="1" splitFirst="1" rowColShift="1" clearFormats="1" clearComments="1" assign="1" coerce="1" cellMeta="1"/>
+  </metadataTypes>
+  <futureMetadata name="XLDAPR" count="1">
+    <bk>
+      <extLst>
+        <ext uri="{bdbb8cdc-fa1e-496e-a857-3c3f30c029c3}">
+          <xda:dynamicArrayProperties fDynamic="1" fCollapsed="0"/>
+        </ext>
+      </extLst>
+    </bk>
+  </futureMetadata>
+  <cellMetadata count="1">
+    <bk>
+      <rc t="1" v="0"/>
+    </bk>
+  </cellMetadata>
+</metadata>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="119">
   <si>
     <t>CMC</t>
   </si>
@@ -348,9 +371,6 @@
     <t>Comentarios</t>
   </si>
   <si>
-    <t>1.0</t>
-  </si>
-  <si>
     <t>Muy parejo</t>
   </si>
   <si>
@@ -463,6 +483,48 @@
   </si>
   <si>
     <t>Juanma</t>
+  </si>
+  <si>
+    <t>Dani</t>
+  </si>
+  <si>
+    <t>Martin</t>
+  </si>
+  <si>
+    <t>Equipo B</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>0.8</t>
+  </si>
+  <si>
+    <t>Se cambio de equipo entre juanma y Coca y estuvo mejor</t>
+  </si>
+  <si>
+    <t>JM</t>
+  </si>
+  <si>
+    <t>Jesús</t>
+  </si>
+  <si>
+    <t>Martín</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pabliyo </t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>Numero de partidos</t>
+  </si>
+  <si>
+    <t>Ratio Goles/Partidos</t>
+  </si>
+  <si>
+    <t>Goles encajados</t>
   </si>
 </sst>
 </file>
@@ -512,7 +574,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -530,6 +592,10 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -545,6 +611,1943 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Ratio</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Goleadores!$F$3:$F$13</c:f>
+              <c:strCache>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>CMC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Paco Cádiz</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Diego</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Coca</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>JM</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Paco Ch</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Jesús</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Martín</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Pabliyo </c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Juanma</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Dani</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Goleadores!$G$3:$G$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="11"/>
+                <c:pt idx="0">
+                  <c:v>4.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.5</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.33333333333333331</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.66666666666666663</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-D40B-4941-A877-7B4328885FC4}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="796722048"/>
+        <c:axId val="796720128"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="796722048"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796720128"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="796720128"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="796722048"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="es-ES"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-ES"/>
+              <a:t>Goles</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-ES" baseline="0"/>
+              <a:t> encajados</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-ES"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="stacked"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Goleadores!$F$17:$F$38</c:f>
+              <c:strCache>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>CMC</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Moi</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Lolo</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>Celia</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>Ana Lucia</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>Paco Ch</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>Migue</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>Pabliyo</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>Pau</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>Héctor</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>Javi</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>Sonia</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>Coca</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>Carlos López</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>Diego</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>Jesus de Alba</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>Jesus María</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>Paco Cádiz</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>Richard</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>Juanma</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>Dani</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>Martin</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Goleadores!$G$17:$G$38</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="22"/>
+                <c:pt idx="0">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>3.6666666666666665</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>8.5</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>5.666666666666667</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>4.25</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>6.5</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>5.5</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E56F-482E-B659-2ADF1E631071}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:overlap val="100"/>
+        <c:axId val="705942240"/>
+        <c:axId val="705943200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="705942240"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705943200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="705943200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-ES"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="705942240"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-ES"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="297">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>90487</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Gráfico 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B5CD519F-9600-6226-BE8F-B10C817EC3D8}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>4762</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>95250</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>271462</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Gráfico 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8427648C-DBF9-2A14-5E27-EEFE39E95F48}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -864,11 +2867,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F2840A4B-1AB7-4CA1-B815-75CB70BF4C7C}">
-  <dimension ref="A1:N21"/>
+  <dimension ref="A1:N23"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D17" sqref="D17"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" topLeftCell="G1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="N3" sqref="N3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1624,7 +3627,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C21" s="1">
         <f>(Ponderaciones!$A$2*E21+Ponderaciones!$B$2*F21+Ponderaciones!$C$2*G21+Ponderaciones!$D$2*H21+Ponderaciones!$E$2*I21+Ponderaciones!$F$2*J21)/SUM(Ponderaciones!$A$2:$F$2)</f>
@@ -1647,6 +3650,66 @@
       </c>
       <c r="J21" s="1">
         <v>5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C22" s="1">
+        <f>(Ponderaciones!$A$2*E22+Ponderaciones!$B$2*F22+Ponderaciones!$C$2*G22+Ponderaciones!$D$2*H22+Ponderaciones!$E$2*I22+Ponderaciones!$F$2*J22)/SUM(Ponderaciones!$A$2:$F$2)</f>
+        <v>8.2272727272727266</v>
+      </c>
+      <c r="E22" s="1">
+        <v>9</v>
+      </c>
+      <c r="F22" s="1">
+        <v>8</v>
+      </c>
+      <c r="G22" s="1">
+        <v>8.5</v>
+      </c>
+      <c r="H22" s="1">
+        <v>7.5</v>
+      </c>
+      <c r="I22" s="1">
+        <v>9</v>
+      </c>
+      <c r="J22" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C23" s="1">
+        <f>(Ponderaciones!$A$2*E23+Ponderaciones!$B$2*F23+Ponderaciones!$C$2*G23+Ponderaciones!$D$2*H23+Ponderaciones!$E$2*I23+Ponderaciones!$F$2*J23)/SUM(Ponderaciones!$A$2:$F$2)</f>
+        <v>7.1818181818181817</v>
+      </c>
+      <c r="E23" s="1">
+        <v>8</v>
+      </c>
+      <c r="F23" s="1">
+        <v>8</v>
+      </c>
+      <c r="G23" s="1">
+        <v>7</v>
+      </c>
+      <c r="H23" s="1">
+        <v>7</v>
+      </c>
+      <c r="I23" s="1">
+        <v>7</v>
+      </c>
+      <c r="J23" s="1">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
@@ -1675,6 +3738,14 @@
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="14" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" customWidth="1"/>
+    <col min="3" max="3" width="13.140625" customWidth="1"/>
+    <col min="4" max="4" width="13.85546875" customWidth="1"/>
+    <col min="5" max="5" width="14.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
@@ -1723,10 +3794,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{424B9EB2-A529-456D-A2FD-30C895AF32E2}">
-  <dimension ref="A1:AC4"/>
+  <dimension ref="A1:AC6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1742,37 +3813,37 @@
         <v>63</v>
       </c>
       <c r="C1" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="L1" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="H1" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="I1" s="2" t="s">
-        <v>103</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>100</v>
-      </c>
       <c r="M1" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>64</v>
@@ -1781,46 +3852,46 @@
         <v>65</v>
       </c>
       <c r="P1" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="Q1" s="2" t="s">
         <v>66</v>
       </c>
       <c r="R1" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="S1" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="S1" s="2" t="s">
+      <c r="T1" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="T1" s="2" t="s">
+      <c r="U1" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="U1" s="2" t="s">
+      <c r="V1" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="V1" s="2" t="s">
+      <c r="W1" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="W1" s="2" t="s">
+      <c r="X1" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="X1" s="2" t="s">
+      <c r="Y1" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Y1" s="2" t="s">
+      <c r="Z1" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="Z1" s="2" t="s">
+      <c r="AA1" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="AA1" s="2" t="s">
+      <c r="AB1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AB1" s="2" t="s">
+      <c r="AC1" s="2" t="s">
         <v>82</v>
-      </c>
-      <c r="AC1" s="2" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:29" x14ac:dyDescent="0.25">
@@ -1828,52 +3899,52 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <v>45765</v>
+        <v>45827</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
       </c>
       <c r="D2" s="1">
+        <v>18</v>
+      </c>
+      <c r="E2" s="1">
+        <v>11</v>
+      </c>
+      <c r="F2" s="1">
+        <v>16</v>
+      </c>
+      <c r="G2" s="1">
+        <v>17</v>
+      </c>
+      <c r="H2" s="1">
+        <v>6</v>
+      </c>
+      <c r="I2" s="1">
+        <v>9</v>
+      </c>
+      <c r="J2" s="1">
+        <v>13</v>
+      </c>
+      <c r="K2" s="1">
+        <v>15</v>
+      </c>
+      <c r="L2" s="1">
         <v>8</v>
       </c>
-      <c r="E2" s="1">
-        <v>3</v>
-      </c>
-      <c r="F2" s="1">
-        <v>4</v>
-      </c>
-      <c r="G2" s="1">
+      <c r="M2" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N2" s="1">
+        <v>8</v>
+      </c>
+      <c r="O2" s="1">
         <v>6</v>
       </c>
-      <c r="H2" s="1">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1">
-        <v>7</v>
-      </c>
-      <c r="J2" s="1">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1">
-        <v>19</v>
-      </c>
-      <c r="L2" s="1">
-        <v>2</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="N2" s="1">
-        <v>3</v>
-      </c>
-      <c r="O2" s="1">
-        <v>3</v>
-      </c>
       <c r="P2" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q2" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="3" spans="1:29" ht="30" x14ac:dyDescent="0.25">
@@ -1881,62 +3952,806 @@
         <v>2</v>
       </c>
       <c r="B3" s="6">
-        <v>45772</v>
-      </c>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
+        <v>45834</v>
+      </c>
+      <c r="C3" s="1">
+        <v>15</v>
+      </c>
+      <c r="D3" s="1">
+        <v>22</v>
+      </c>
+      <c r="E3" s="1">
+        <v>13</v>
+      </c>
+      <c r="F3" s="1">
+        <v>17</v>
+      </c>
+      <c r="G3" s="1">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1">
+        <v>20</v>
+      </c>
+      <c r="J3" s="1">
+        <v>16</v>
+      </c>
+      <c r="K3" s="1">
+        <v>7</v>
+      </c>
+      <c r="L3" s="1">
+        <v>6</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>107</v>
+      </c>
       <c r="N3" s="1">
+        <v>0</v>
+      </c>
+      <c r="O3" s="1">
+        <v>5</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q3" s="1" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:29" ht="105" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6">
+        <v>45834</v>
+      </c>
+      <c r="C4" s="1">
+        <v>15</v>
+      </c>
+      <c r="D4" s="1">
+        <v>22</v>
+      </c>
+      <c r="E4" s="1">
+        <v>20</v>
+      </c>
+      <c r="F4" s="1">
+        <v>17</v>
+      </c>
+      <c r="G4" s="1">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1">
         <v>1</v>
       </c>
-      <c r="O3" s="1">
+      <c r="I4" s="1">
+        <v>13</v>
+      </c>
+      <c r="J4" s="1">
+        <v>16</v>
+      </c>
+      <c r="K4" s="1">
+        <v>7</v>
+      </c>
+      <c r="L4" s="1">
+        <v>6</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>107</v>
+      </c>
+      <c r="N4" s="1">
         <v>4</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="Q3" s="1" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.25">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="O4" s="1">
+        <v>6</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>108</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" s="7">
+        <v>45851</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>7</v>
+      </c>
+      <c r="E5">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>15</v>
+      </c>
+      <c r="G5">
+        <v>16</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>11</v>
+      </c>
+      <c r="J5">
+        <v>17</v>
+      </c>
+      <c r="K5">
+        <v>21</v>
+      </c>
+      <c r="L5">
+        <v>20</v>
+      </c>
+      <c r="M5" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="N5" s="1">
+        <v>9</v>
+      </c>
+      <c r="O5" s="1">
+        <v>7</v>
+      </c>
+      <c r="P5" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6" s="7">
+        <v>45876</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="M2:M5" xr:uid="{6853CCAF-D100-4999-A31F-FF8BDD6D0BCA}">
+      <formula1>"Equipo A, Equipo B"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03F2217D-BF77-4A43-B6FF-1EC89FD7795A}">
+  <dimension ref="B2:G38"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="C2" s="8"/>
+      <c r="F2" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" s="8"/>
+    </row>
+    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <f>C3/C17</f>
+        <v>4.5</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>58</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="F4" t="s">
+        <v>58</v>
+      </c>
+      <c r="G4">
+        <f>C4/C34</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>55</v>
+      </c>
+      <c r="C5">
+        <v>6</v>
+      </c>
+      <c r="F5" t="s">
+        <v>55</v>
+      </c>
+      <c r="G5">
+        <f>C5/C31</f>
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6">
+        <f>C6/C29</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>111</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="F7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G7">
+        <f>C7/C33</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="F8" t="s">
+        <v>5</v>
+      </c>
+      <c r="G8">
+        <f t="shared" ref="G4:G13" si="0">C8/C22</f>
+        <v>0.33333333333333331</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="F9" t="s">
+        <v>112</v>
+      </c>
+      <c r="G9">
+        <f>C9/C32</f>
+        <v>0.75</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
+        <v>113</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="F10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10">
+        <f>C10/C38</f>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
+        <v>114</v>
+      </c>
+      <c r="C11">
+        <v>2</v>
+      </c>
+      <c r="F11" t="s">
+        <v>114</v>
+      </c>
+      <c r="G11">
+        <f>C11/C24</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>104</v>
+      </c>
+      <c r="C12">
+        <v>2</v>
+      </c>
+      <c r="F12" t="s">
+        <v>104</v>
+      </c>
+      <c r="G12">
+        <f>C12/C36</f>
+        <v>0.66666666666666663</v>
+      </c>
+    </row>
+    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>105</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="F13" t="s">
+        <v>105</v>
+      </c>
+      <c r="G13">
+        <f>C13/C37</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B16" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="C16" s="8"/>
+      <c r="F16" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" s="8"/>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <f>COUNTIF(Resultados!C2:L5, 1)</f>
+        <v>4</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="G17" cm="1">
+        <f t="array" ref="G17">SUMPRODUCT((Resultados!$C$2:$G$5=E17)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E17)*(Resultados!$N$2:$N$5))/C17</f>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <f>COUNTIF(Resultados!C2:L5, 2)</f>
+        <v>0</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="G18" t="e" cm="1">
+        <f t="array" ref="G18">SUMPRODUCT((Resultados!$C$2:$G$5=E18)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E18)*(Resultados!$N$2:$N$5))/C18</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19">
+        <f>COUNTIF(Resultados!C2:L5, 3)</f>
+        <v>0</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="G19" t="e" cm="1">
+        <f t="array" ref="G19">SUMPRODUCT((Resultados!$C$2:$G$5=E19)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E19)*(Resultados!$N$2:$N$5))/C19</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="20" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20">
+        <f>COUNTIF(Resultados!C2:L5, 4)</f>
+        <v>0</v>
+      </c>
+      <c r="E20">
+        <v>4</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G20" t="e" cm="1">
+        <f t="array" ref="G20">SUMPRODUCT((Resultados!$C$2:$G$5=E20)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E20)*(Resultados!$N$2:$N$5))/C20</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="21" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21">
+        <f>COUNTIF(Resultados!C2:L5, 5)</f>
+        <v>0</v>
+      </c>
+      <c r="E21">
+        <v>5</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G21" t="e" cm="1">
+        <f t="array" ref="G21">SUMPRODUCT((Resultados!$C$2:$G$5=E21)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E21)*(Resultados!$N$2:$N$5))/C21</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="22" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <f>COUNTIF(Resultados!C2:L5, 6)</f>
+        <v>3</v>
+      </c>
+      <c r="E22">
+        <v>6</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G22" cm="1">
+        <f t="array" ref="G22">SUMPRODUCT((Resultados!$C$2:$G$5=E22)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E22)*(Resultados!$N$2:$N$5))/C22</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C23">
+        <f>COUNTIF(Resultados!C2:L5, 7)</f>
+        <v>3</v>
+      </c>
+      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="G23" cm="1">
+        <f t="array" ref="G23">SUMPRODUCT((Resultados!$C$2:$G$5=E23)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E23)*(Resultados!$N$2:$N$5))/C23</f>
+        <v>3.6666666666666665</v>
+      </c>
+    </row>
+    <row r="24" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C24">
+        <f>COUNTIF(Resultados!C2:L5, 8)</f>
+        <v>2</v>
+      </c>
+      <c r="E24">
+        <v>8</v>
+      </c>
+      <c r="F24" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" cm="1">
+        <f t="array" ref="G24">SUMPRODUCT((Resultados!$C$2:$G$5=E24)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E24)*(Resultados!$N$2:$N$5))/C24</f>
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="25" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C25">
+        <f>COUNTIF(Resultados!C2:L5, 9)</f>
+        <v>1</v>
+      </c>
+      <c r="E25">
+        <v>9</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" cm="1">
+        <f t="array" ref="G25">SUMPRODUCT((Resultados!$C$2:$G$5=E25)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E25)*(Resultados!$N$2:$N$5))/C25</f>
+        <v>8</v>
+      </c>
+    </row>
+    <row r="26" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26">
+        <f>COUNTIF(Resultados!C2:L5, 10)</f>
+        <v>0</v>
+      </c>
+      <c r="E26">
+        <v>10</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G26" t="e" cm="1">
+        <f t="array" ref="G26">SUMPRODUCT((Resultados!$C$2:$G$5=E26)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E26)*(Resultados!$N$2:$N$5))/C26</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="27" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C27">
+        <f>COUNTIF(Resultados!C2:L5, 11)</f>
+        <v>2</v>
+      </c>
+      <c r="E27">
+        <v>11</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="G27" cm="1">
+        <f t="array" ref="G27">SUMPRODUCT((Resultados!$C$2:$G$5=E27)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E27)*(Resultados!$N$2:$N$5))/C27</f>
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="28" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28">
+        <f>COUNTIF(Resultados!C2:L5, 12)</f>
+        <v>3</v>
+      </c>
+      <c r="E28">
+        <v>12</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="G28" cm="1">
+        <f t="array" ref="G28">SUMPRODUCT((Resultados!$C$2:$G$5=E28)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E28)*(Resultados!$N$2:$N$5))/C28</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="29" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C29">
+        <f>COUNTIF(Resultados!C2:L5, 13)</f>
+        <v>3</v>
+      </c>
+      <c r="E29">
+        <v>13</v>
+      </c>
+      <c r="F29" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G29" cm="1">
+        <f t="array" ref="G29">SUMPRODUCT((Resultados!$C$2:$G$5=E29)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E29)*(Resultados!$N$2:$N$5))/C29</f>
+        <v>5.666666666666667</v>
+      </c>
+    </row>
+    <row r="30" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C30">
+        <f>COUNTIF(Resultados!C2:L5, 14)</f>
+        <v>0</v>
+      </c>
+      <c r="E30">
+        <v>14</v>
+      </c>
+      <c r="F30" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G30" t="e" cm="1">
+        <f t="array" ref="G30">SUMPRODUCT((Resultados!$C$2:$G$5=E30)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E30)*(Resultados!$N$2:$N$5))/C30</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="31" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C31">
+        <f>COUNTIF(Resultados!C2:L5, 15)</f>
+        <v>4</v>
+      </c>
+      <c r="E31">
+        <v>15</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G31" cm="1">
+        <f t="array" ref="G31">SUMPRODUCT((Resultados!$C$2:$G$5=E31)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E31)*(Resultados!$N$2:$N$5))/C31</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="32" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C32">
+        <f>COUNTIF(Resultados!C2:L5, 16)</f>
+        <v>4</v>
+      </c>
+      <c r="E32">
+        <v>16</v>
+      </c>
+      <c r="F32" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="G32" cm="1">
+        <f t="array" ref="G32">SUMPRODUCT((Resultados!$C$2:$G$5=E32)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E32)*(Resultados!$N$2:$N$5))/C32</f>
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="33" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C33">
+        <f>COUNTIF(Resultados!C2:L5, 17)</f>
+        <v>4</v>
+      </c>
+      <c r="E33">
+        <v>17</v>
+      </c>
+      <c r="F33" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="G33" cm="1">
+        <f t="array" ref="G33">SUMPRODUCT((Resultados!$C$2:$G$5=E33)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E33)*(Resultados!$N$2:$N$5))/C33</f>
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C34">
+        <f>COUNTIF(Resultados!C2:L5, 18)</f>
+        <v>1</v>
+      </c>
+      <c r="E34">
+        <v>18</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="G34" cm="1">
+        <f t="array" ref="G34">SUMPRODUCT((Resultados!$C$2:$G$5=E34)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E34)*(Resultados!$N$2:$N$5))/C34</f>
+        <v>6</v>
+      </c>
+    </row>
+    <row r="35" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="C35">
+        <f>COUNTIF(Resultados!C2:L5, 19)</f>
+        <v>0</v>
+      </c>
+      <c r="E35">
+        <v>19</v>
+      </c>
+      <c r="F35" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="G35" t="e" cm="1">
+        <f t="array" ref="G35">SUMPRODUCT((Resultados!$C$2:$G$5=E35)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E35)*(Resultados!$N$2:$N$5))/C35</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="36" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="C36">
+        <f>COUNTIF(Resultados!C2:L5, 20)</f>
+        <v>3</v>
+      </c>
+      <c r="E36">
+        <v>20</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="G36" cm="1">
+        <f t="array" ref="G36">SUMPRODUCT((Resultados!$C$2:$G$5=E36)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E36)*(Resultados!$N$2:$N$5))/C36</f>
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C37">
+        <f>COUNTIF(Resultados!C2:L5, 21)</f>
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>21</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="G37" cm="1">
+        <f t="array" ref="G37">SUMPRODUCT((Resultados!$C$2:$G$5=E37)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E37)*(Resultados!$N$2:$N$5))/C37</f>
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38">
+        <f>COUNTIF(Resultados!C2:L5, 22)</f>
+        <v>2</v>
+      </c>
+      <c r="E38">
+        <v>22</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="G38" cm="1">
+        <f t="array" ref="G38">SUMPRODUCT((Resultados!$C$2:$G$5=E38)*(Resultados!$O$2:$O$5) + (Resultados!$H$2:$L$5 = E38)*(Resultados!$N$2:$N$5))/C38</f>
+        <v>5.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="B16:C16"/>
+    <mergeCell ref="F16:G16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACE91196-1357-4179-AE3B-57209A722F5F}">
   <dimension ref="A1:I362"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F2" sqref="F2"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1948,37 +4763,37 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B1" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="4" t="s">
+      <c r="C1" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="E1" s="4" t="s">
+      <c r="F1" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>84</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="F1" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>93</v>
-      </c>
-      <c r="I1" s="4" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="F2">
         <f>COUNTIF(Resultados!C:L,"1")</f>
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1996,7 +4811,7 @@
       </c>
       <c r="F4">
         <f>COUNT(A4,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -2005,7 +4820,7 @@
       </c>
       <c r="F5">
         <f>COUNT(A5,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -2014,7 +4829,7 @@
       </c>
       <c r="F6">
         <f>COUNT(A6,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
@@ -2023,7 +4838,7 @@
       </c>
       <c r="F7">
         <f>COUNT(A7,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
@@ -2032,7 +4847,7 @@
       </c>
       <c r="F8">
         <f>COUNT(A8,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
@@ -2041,7 +4856,7 @@
       </c>
       <c r="F9">
         <f>COUNT(A9,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
@@ -2050,7 +4865,7 @@
       </c>
       <c r="F10">
         <f>COUNT(A10,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
@@ -2059,7 +4874,7 @@
       </c>
       <c r="F11">
         <f>COUNT(A11,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
@@ -2068,7 +4883,7 @@
       </c>
       <c r="F12">
         <f>COUNT(A12,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
@@ -2077,7 +4892,7 @@
       </c>
       <c r="F13">
         <f>COUNT(A13,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
@@ -2086,7 +4901,7 @@
       </c>
       <c r="F14">
         <f>COUNT(A14,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
@@ -2095,7 +4910,7 @@
       </c>
       <c r="F15">
         <f>COUNT(A15,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
@@ -2104,7 +4919,7 @@
       </c>
       <c r="F16">
         <f>COUNT(A16,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
@@ -2113,7 +4928,7 @@
       </c>
       <c r="F17">
         <f>COUNT(A17,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -2122,7 +4937,7 @@
       </c>
       <c r="F18">
         <f>COUNT(A18,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
@@ -2131,7 +4946,7 @@
       </c>
       <c r="F19">
         <f>COUNT(A19,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
@@ -2140,7 +4955,7 @@
       </c>
       <c r="F20">
         <f>COUNT(A20,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
@@ -2152,7 +4967,7 @@
       </c>
       <c r="F21">
         <f>COUNT(A21,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -2164,7 +4979,7 @@
       </c>
       <c r="F22">
         <f>COUNT(A22,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
@@ -2176,7 +4991,7 @@
       </c>
       <c r="F23">
         <f>COUNT(A23,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
@@ -2188,7 +5003,7 @@
       </c>
       <c r="F24">
         <f>COUNT(A24,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
@@ -2200,7 +5015,7 @@
       </c>
       <c r="F25">
         <f>COUNT(A25,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -2212,7 +5027,7 @@
       </c>
       <c r="F26">
         <f>COUNT(A26,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
@@ -2224,7 +5039,7 @@
       </c>
       <c r="F27">
         <f>COUNT(A27,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
@@ -2236,7 +5051,7 @@
       </c>
       <c r="F28">
         <f>COUNT(A28,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
@@ -2248,7 +5063,7 @@
       </c>
       <c r="F29">
         <f>COUNT(A29,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
@@ -2260,7 +5075,7 @@
       </c>
       <c r="F30">
         <f>COUNT(A30,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
@@ -2272,7 +5087,7 @@
       </c>
       <c r="F31">
         <f>COUNT(A31,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
@@ -2284,7 +5099,7 @@
       </c>
       <c r="F32">
         <f>COUNT(A32,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
@@ -2296,7 +5111,7 @@
       </c>
       <c r="F33">
         <f>COUNT(A33,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
@@ -2308,7 +5123,7 @@
       </c>
       <c r="F34">
         <f>COUNT(A34,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
@@ -2320,7 +5135,7 @@
       </c>
       <c r="F35">
         <f>COUNT(A35,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
@@ -2332,7 +5147,7 @@
       </c>
       <c r="F36">
         <f>COUNT(A36,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
@@ -2344,7 +5159,7 @@
       </c>
       <c r="F37">
         <f>COUNT(A37,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
@@ -2356,7 +5171,7 @@
       </c>
       <c r="F38">
         <f>COUNT(A38,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
@@ -2368,7 +5183,7 @@
       </c>
       <c r="F39">
         <f>COUNT(A39,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
@@ -2380,7 +5195,7 @@
       </c>
       <c r="F40">
         <f>COUNT(A40,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
@@ -2392,7 +5207,7 @@
       </c>
       <c r="F41">
         <f>COUNT(A41,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
@@ -2404,7 +5219,7 @@
       </c>
       <c r="F42">
         <f>COUNT(A42,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
@@ -2416,7 +5231,7 @@
       </c>
       <c r="F43">
         <f>COUNT(A43,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
@@ -2428,7 +5243,7 @@
       </c>
       <c r="F44">
         <f>COUNT(A44,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
@@ -2440,7 +5255,7 @@
       </c>
       <c r="F45">
         <f>COUNT(A45,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
@@ -2452,7 +5267,7 @@
       </c>
       <c r="F46">
         <f>COUNT(A46,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
@@ -2464,7 +5279,7 @@
       </c>
       <c r="F47">
         <f>COUNT(A47,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
@@ -2476,7 +5291,7 @@
       </c>
       <c r="F48">
         <f>COUNT(A48,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
@@ -2488,7 +5303,7 @@
       </c>
       <c r="F49">
         <f>COUNT(A49,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
@@ -2500,7 +5315,7 @@
       </c>
       <c r="F50">
         <f>COUNT(A50,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
@@ -2512,7 +5327,7 @@
       </c>
       <c r="F51">
         <f>COUNT(A51,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
@@ -2524,7 +5339,7 @@
       </c>
       <c r="F52">
         <f>COUNT(A52,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
@@ -2536,7 +5351,7 @@
       </c>
       <c r="F53">
         <f>COUNT(A53,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
@@ -2548,7 +5363,7 @@
       </c>
       <c r="F54">
         <f>COUNT(A54,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
@@ -2560,7 +5375,7 @@
       </c>
       <c r="F55">
         <f>COUNT(A55,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
@@ -2572,7 +5387,7 @@
       </c>
       <c r="F56">
         <f>COUNT(A56,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
@@ -2584,7 +5399,7 @@
       </c>
       <c r="F57">
         <f>COUNT(A57,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
@@ -2596,7 +5411,7 @@
       </c>
       <c r="F58">
         <f>COUNT(A58,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
@@ -2608,7 +5423,7 @@
       </c>
       <c r="F59">
         <f>COUNT(A59,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
@@ -2620,7 +5435,7 @@
       </c>
       <c r="F60">
         <f>COUNT(A60,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
@@ -2632,7 +5447,7 @@
       </c>
       <c r="F61">
         <f>COUNT(A61,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
@@ -2644,7 +5459,7 @@
       </c>
       <c r="F62">
         <f>COUNT(A62,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
@@ -2656,7 +5471,7 @@
       </c>
       <c r="F63">
         <f>COUNT(A63,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
@@ -2668,7 +5483,7 @@
       </c>
       <c r="F64">
         <f>COUNT(A64,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="65" spans="1:6" x14ac:dyDescent="0.25">
@@ -2680,7 +5495,7 @@
       </c>
       <c r="F65">
         <f>COUNT(A65,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="66" spans="1:6" x14ac:dyDescent="0.25">
@@ -2692,7 +5507,7 @@
       </c>
       <c r="F66">
         <f>COUNT(A66,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="67" spans="1:6" x14ac:dyDescent="0.25">
@@ -2704,7 +5519,7 @@
       </c>
       <c r="F67">
         <f>COUNT(A67,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="68" spans="1:6" x14ac:dyDescent="0.25">
@@ -2716,7 +5531,7 @@
       </c>
       <c r="F68">
         <f>COUNT(A68,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:6" x14ac:dyDescent="0.25">
@@ -2728,7 +5543,7 @@
       </c>
       <c r="F69">
         <f>COUNT(A69,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="70" spans="1:6" x14ac:dyDescent="0.25">
@@ -2740,7 +5555,7 @@
       </c>
       <c r="F70">
         <f>COUNT(A70,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="71" spans="1:6" x14ac:dyDescent="0.25">
@@ -2752,7 +5567,7 @@
       </c>
       <c r="F71">
         <f>COUNT(A71,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="72" spans="1:6" x14ac:dyDescent="0.25">
@@ -2764,7 +5579,7 @@
       </c>
       <c r="F72">
         <f>COUNT(A72,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="73" spans="1:6" x14ac:dyDescent="0.25">
@@ -2776,7 +5591,7 @@
       </c>
       <c r="F73">
         <f>COUNT(A73,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="74" spans="1:6" x14ac:dyDescent="0.25">
@@ -2788,7 +5603,7 @@
       </c>
       <c r="F74">
         <f>COUNT(A74,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="75" spans="1:6" x14ac:dyDescent="0.25">
@@ -2800,7 +5615,7 @@
       </c>
       <c r="F75">
         <f>COUNT(A75,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="76" spans="1:6" x14ac:dyDescent="0.25">
@@ -2812,7 +5627,7 @@
       </c>
       <c r="F76">
         <f>COUNT(A76,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="77" spans="1:6" x14ac:dyDescent="0.25">
@@ -2824,7 +5639,7 @@
       </c>
       <c r="F77">
         <f>COUNT(A77,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="78" spans="1:6" x14ac:dyDescent="0.25">
@@ -2836,7 +5651,7 @@
       </c>
       <c r="F78">
         <f>COUNT(A78,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:6" x14ac:dyDescent="0.25">
@@ -2848,7 +5663,7 @@
       </c>
       <c r="F79">
         <f>COUNT(A79,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="80" spans="1:6" x14ac:dyDescent="0.25">
@@ -2860,7 +5675,7 @@
       </c>
       <c r="F80">
         <f>COUNT(A80,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
@@ -2872,7 +5687,7 @@
       </c>
       <c r="F81">
         <f>COUNT(A81,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
@@ -2884,7 +5699,7 @@
       </c>
       <c r="F82">
         <f>COUNT(A82,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
@@ -2896,7 +5711,7 @@
       </c>
       <c r="F83">
         <f>COUNT(A83,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
@@ -2908,7 +5723,7 @@
       </c>
       <c r="F84">
         <f>COUNT(A84,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
@@ -2920,7 +5735,7 @@
       </c>
       <c r="F85">
         <f>COUNT(A85,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
@@ -2932,7 +5747,7 @@
       </c>
       <c r="F86">
         <f>COUNT(A86,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
@@ -2944,7 +5759,7 @@
       </c>
       <c r="F87">
         <f>COUNT(A87,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
@@ -2956,7 +5771,7 @@
       </c>
       <c r="F88">
         <f>COUNT(A88,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
@@ -2968,7 +5783,7 @@
       </c>
       <c r="F89">
         <f>COUNT(A89,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
@@ -2980,7 +5795,7 @@
       </c>
       <c r="F90">
         <f>COUNT(A90,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
@@ -2992,7 +5807,7 @@
       </c>
       <c r="F91">
         <f>COUNT(A91,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
@@ -3004,7 +5819,7 @@
       </c>
       <c r="F92">
         <f>COUNT(A92,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
@@ -3016,7 +5831,7 @@
       </c>
       <c r="F93">
         <f>COUNT(A93,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
@@ -3028,7 +5843,7 @@
       </c>
       <c r="F94">
         <f>COUNT(A94,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
@@ -3040,7 +5855,7 @@
       </c>
       <c r="F95">
         <f>COUNT(A95,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
@@ -3052,7 +5867,7 @@
       </c>
       <c r="F96">
         <f>COUNT(A96,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
@@ -3064,7 +5879,7 @@
       </c>
       <c r="F97">
         <f>COUNT(A97,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
@@ -3076,7 +5891,7 @@
       </c>
       <c r="F98">
         <f>COUNT(A98,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
@@ -3088,7 +5903,7 @@
       </c>
       <c r="F99">
         <f>COUNT(A99,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
@@ -3100,7 +5915,7 @@
       </c>
       <c r="F100">
         <f>COUNT(A100,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
@@ -3112,7 +5927,7 @@
       </c>
       <c r="F101">
         <f>COUNT(A101,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
@@ -3124,7 +5939,7 @@
       </c>
       <c r="F102">
         <f>COUNT(A102,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
@@ -3136,7 +5951,7 @@
       </c>
       <c r="F103">
         <f>COUNT(A103,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
@@ -3148,7 +5963,7 @@
       </c>
       <c r="F104">
         <f>COUNT(A104,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
@@ -3160,7 +5975,7 @@
       </c>
       <c r="F105">
         <f>COUNT(A105,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
@@ -3172,7 +5987,7 @@
       </c>
       <c r="F106">
         <f>COUNT(A106,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
@@ -3184,7 +5999,7 @@
       </c>
       <c r="F107">
         <f>COUNT(A107,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
@@ -3196,7 +6011,7 @@
       </c>
       <c r="F108">
         <f>COUNT(A108,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
@@ -3208,7 +6023,7 @@
       </c>
       <c r="F109">
         <f>COUNT(A109,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="110" spans="1:6" x14ac:dyDescent="0.25">
@@ -3220,7 +6035,7 @@
       </c>
       <c r="F110">
         <f>COUNT(A110,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.25">
@@ -3232,7 +6047,7 @@
       </c>
       <c r="F111">
         <f>COUNT(A111,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.25">
@@ -3244,7 +6059,7 @@
       </c>
       <c r="F112">
         <f>COUNT(A112,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="113" spans="1:6" x14ac:dyDescent="0.25">
@@ -3256,7 +6071,7 @@
       </c>
       <c r="F113">
         <f>COUNT(A113,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="114" spans="1:6" x14ac:dyDescent="0.25">
@@ -3268,7 +6083,7 @@
       </c>
       <c r="F114">
         <f>COUNT(A114,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="115" spans="1:6" x14ac:dyDescent="0.25">
@@ -3280,7 +6095,7 @@
       </c>
       <c r="F115">
         <f>COUNT(A115,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="116" spans="1:6" x14ac:dyDescent="0.25">
@@ -3292,7 +6107,7 @@
       </c>
       <c r="F116">
         <f>COUNT(A116,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="117" spans="1:6" x14ac:dyDescent="0.25">
@@ -3304,7 +6119,7 @@
       </c>
       <c r="F117">
         <f>COUNT(A117,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="118" spans="1:6" x14ac:dyDescent="0.25">
@@ -3316,7 +6131,7 @@
       </c>
       <c r="F118">
         <f>COUNT(A118,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="119" spans="1:6" x14ac:dyDescent="0.25">
@@ -3328,7 +6143,7 @@
       </c>
       <c r="F119">
         <f>COUNT(A119,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="120" spans="1:6" x14ac:dyDescent="0.25">
@@ -3340,7 +6155,7 @@
       </c>
       <c r="F120">
         <f>COUNT(A120,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="121" spans="1:6" x14ac:dyDescent="0.25">
@@ -3352,7 +6167,7 @@
       </c>
       <c r="F121">
         <f>COUNT(A121,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="122" spans="1:6" x14ac:dyDescent="0.25">
@@ -3364,7 +6179,7 @@
       </c>
       <c r="F122">
         <f>COUNT(A122,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="123" spans="1:6" x14ac:dyDescent="0.25">
@@ -3376,7 +6191,7 @@
       </c>
       <c r="F123">
         <f>COUNT(A123,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="124" spans="1:6" x14ac:dyDescent="0.25">
@@ -3388,7 +6203,7 @@
       </c>
       <c r="F124">
         <f>COUNT(A124,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="125" spans="1:6" x14ac:dyDescent="0.25">
@@ -3400,7 +6215,7 @@
       </c>
       <c r="F125">
         <f>COUNT(A125,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="126" spans="1:6" x14ac:dyDescent="0.25">
@@ -3412,7 +6227,7 @@
       </c>
       <c r="F126">
         <f>COUNT(A126,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="127" spans="1:6" x14ac:dyDescent="0.25">
@@ -3424,7 +6239,7 @@
       </c>
       <c r="F127">
         <f>COUNT(A127,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="128" spans="1:6" x14ac:dyDescent="0.25">
@@ -3436,7 +6251,7 @@
       </c>
       <c r="F128">
         <f>COUNT(A128,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="129" spans="1:6" x14ac:dyDescent="0.25">
@@ -3448,7 +6263,7 @@
       </c>
       <c r="F129">
         <f>COUNT(A129,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="130" spans="1:6" x14ac:dyDescent="0.25">
@@ -3460,7 +6275,7 @@
       </c>
       <c r="F130">
         <f>COUNT(A130,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="131" spans="1:6" x14ac:dyDescent="0.25">
@@ -3472,7 +6287,7 @@
       </c>
       <c r="F131">
         <f>COUNT(A131,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="132" spans="1:6" x14ac:dyDescent="0.25">
@@ -3484,7 +6299,7 @@
       </c>
       <c r="F132">
         <f>COUNT(A132,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="133" spans="1:6" x14ac:dyDescent="0.25">
@@ -3496,7 +6311,7 @@
       </c>
       <c r="F133">
         <f>COUNT(A133,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="134" spans="1:6" x14ac:dyDescent="0.25">
@@ -3508,7 +6323,7 @@
       </c>
       <c r="F134">
         <f>COUNT(A134,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="135" spans="1:6" x14ac:dyDescent="0.25">
@@ -3520,7 +6335,7 @@
       </c>
       <c r="F135">
         <f>COUNT(A135,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="136" spans="1:6" x14ac:dyDescent="0.25">
@@ -3532,7 +6347,7 @@
       </c>
       <c r="F136">
         <f>COUNT(A136,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="137" spans="1:6" x14ac:dyDescent="0.25">
@@ -3544,7 +6359,7 @@
       </c>
       <c r="F137">
         <f>COUNT(A137,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="138" spans="1:6" x14ac:dyDescent="0.25">
@@ -3556,7 +6371,7 @@
       </c>
       <c r="F138">
         <f>COUNT(A138,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="139" spans="1:6" x14ac:dyDescent="0.25">
@@ -3568,7 +6383,7 @@
       </c>
       <c r="F139">
         <f>COUNT(A139,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="140" spans="1:6" x14ac:dyDescent="0.25">
@@ -3580,7 +6395,7 @@
       </c>
       <c r="F140">
         <f>COUNT(A140,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="141" spans="1:6" x14ac:dyDescent="0.25">
@@ -3592,7 +6407,7 @@
       </c>
       <c r="F141">
         <f>COUNT(A141,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="142" spans="1:6" x14ac:dyDescent="0.25">
@@ -3604,7 +6419,7 @@
       </c>
       <c r="F142">
         <f>COUNT(A142,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="143" spans="1:6" x14ac:dyDescent="0.25">
@@ -3616,7 +6431,7 @@
       </c>
       <c r="F143">
         <f>COUNT(A143,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="144" spans="1:6" x14ac:dyDescent="0.25">
@@ -3628,7 +6443,7 @@
       </c>
       <c r="F144">
         <f>COUNT(A144,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="145" spans="1:6" x14ac:dyDescent="0.25">
@@ -3640,7 +6455,7 @@
       </c>
       <c r="F145">
         <f>COUNT(A145,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="146" spans="1:6" x14ac:dyDescent="0.25">
@@ -3652,7 +6467,7 @@
       </c>
       <c r="F146">
         <f>COUNT(A146,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="147" spans="1:6" x14ac:dyDescent="0.25">
@@ -3664,7 +6479,7 @@
       </c>
       <c r="F147">
         <f>COUNT(A147,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="148" spans="1:6" x14ac:dyDescent="0.25">
@@ -3676,7 +6491,7 @@
       </c>
       <c r="F148">
         <f>COUNT(A148,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="149" spans="1:6" x14ac:dyDescent="0.25">
@@ -3688,7 +6503,7 @@
       </c>
       <c r="F149">
         <f>COUNT(A149,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="150" spans="1:6" x14ac:dyDescent="0.25">
@@ -3700,7 +6515,7 @@
       </c>
       <c r="F150">
         <f>COUNT(A150,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="151" spans="1:6" x14ac:dyDescent="0.25">
@@ -3712,7 +6527,7 @@
       </c>
       <c r="F151">
         <f>COUNT(A151,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="152" spans="1:6" x14ac:dyDescent="0.25">
@@ -3724,7 +6539,7 @@
       </c>
       <c r="F152">
         <f>COUNT(A152,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="153" spans="1:6" x14ac:dyDescent="0.25">
@@ -3736,7 +6551,7 @@
       </c>
       <c r="F153">
         <f>COUNT(A153,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="154" spans="1:6" x14ac:dyDescent="0.25">
@@ -3748,7 +6563,7 @@
       </c>
       <c r="F154">
         <f>COUNT(A154,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="155" spans="1:6" x14ac:dyDescent="0.25">
@@ -3760,7 +6575,7 @@
       </c>
       <c r="F155">
         <f>COUNT(A155,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="156" spans="1:6" x14ac:dyDescent="0.25">
@@ -3772,7 +6587,7 @@
       </c>
       <c r="F156">
         <f>COUNT(A156,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="157" spans="1:6" x14ac:dyDescent="0.25">
@@ -3784,7 +6599,7 @@
       </c>
       <c r="F157">
         <f>COUNT(A157,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="158" spans="1:6" x14ac:dyDescent="0.25">
@@ -3796,7 +6611,7 @@
       </c>
       <c r="F158">
         <f>COUNT(A158,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="159" spans="1:6" x14ac:dyDescent="0.25">
@@ -3808,7 +6623,7 @@
       </c>
       <c r="F159">
         <f>COUNT(A159,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="160" spans="1:6" x14ac:dyDescent="0.25">
@@ -3820,7 +6635,7 @@
       </c>
       <c r="F160">
         <f>COUNT(A160,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="161" spans="1:6" x14ac:dyDescent="0.25">
@@ -3832,7 +6647,7 @@
       </c>
       <c r="F161">
         <f>COUNT(A161,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="162" spans="1:6" x14ac:dyDescent="0.25">
@@ -3844,7 +6659,7 @@
       </c>
       <c r="F162">
         <f>COUNT(A162,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="163" spans="1:6" x14ac:dyDescent="0.25">
@@ -3856,7 +6671,7 @@
       </c>
       <c r="F163">
         <f>COUNT(A163,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="164" spans="1:6" x14ac:dyDescent="0.25">
@@ -3868,7 +6683,7 @@
       </c>
       <c r="F164">
         <f>COUNT(A164,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="165" spans="1:6" x14ac:dyDescent="0.25">
@@ -3880,7 +6695,7 @@
       </c>
       <c r="F165">
         <f>COUNT(A165,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="166" spans="1:6" x14ac:dyDescent="0.25">
@@ -3892,7 +6707,7 @@
       </c>
       <c r="F166">
         <f>COUNT(A166,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="167" spans="1:6" x14ac:dyDescent="0.25">
@@ -3904,7 +6719,7 @@
       </c>
       <c r="F167">
         <f>COUNT(A167,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="168" spans="1:6" x14ac:dyDescent="0.25">
@@ -3916,7 +6731,7 @@
       </c>
       <c r="F168">
         <f>COUNT(A168,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="169" spans="1:6" x14ac:dyDescent="0.25">
@@ -3928,7 +6743,7 @@
       </c>
       <c r="F169">
         <f>COUNT(A169,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="170" spans="1:6" x14ac:dyDescent="0.25">
@@ -3940,7 +6755,7 @@
       </c>
       <c r="F170">
         <f>COUNT(A170,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="171" spans="1:6" x14ac:dyDescent="0.25">
@@ -3952,7 +6767,7 @@
       </c>
       <c r="F171">
         <f>COUNT(A171,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="172" spans="1:6" x14ac:dyDescent="0.25">
@@ -3964,7 +6779,7 @@
       </c>
       <c r="F172">
         <f>COUNT(A172,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="173" spans="1:6" x14ac:dyDescent="0.25">
@@ -3976,7 +6791,7 @@
       </c>
       <c r="F173">
         <f>COUNT(A173,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="174" spans="1:6" x14ac:dyDescent="0.25">
@@ -3988,7 +6803,7 @@
       </c>
       <c r="F174">
         <f>COUNT(A174,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="175" spans="1:6" x14ac:dyDescent="0.25">
@@ -4000,7 +6815,7 @@
       </c>
       <c r="F175">
         <f>COUNT(A175,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="176" spans="1:6" x14ac:dyDescent="0.25">
@@ -4012,7 +6827,7 @@
       </c>
       <c r="F176">
         <f>COUNT(A176,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="177" spans="1:6" x14ac:dyDescent="0.25">
@@ -4024,7 +6839,7 @@
       </c>
       <c r="F177">
         <f>COUNT(A177,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="178" spans="1:6" x14ac:dyDescent="0.25">
@@ -4036,7 +6851,7 @@
       </c>
       <c r="F178">
         <f>COUNT(A178,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="179" spans="1:6" x14ac:dyDescent="0.25">
@@ -4048,7 +6863,7 @@
       </c>
       <c r="F179">
         <f>COUNT(A179,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="180" spans="1:6" x14ac:dyDescent="0.25">
@@ -4060,7 +6875,7 @@
       </c>
       <c r="F180">
         <f>COUNT(A180,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="181" spans="1:6" x14ac:dyDescent="0.25">
@@ -4072,7 +6887,7 @@
       </c>
       <c r="F181">
         <f>COUNT(A181,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="182" spans="1:6" x14ac:dyDescent="0.25">
@@ -4084,7 +6899,7 @@
       </c>
       <c r="F182">
         <f>COUNT(A182,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="183" spans="1:6" x14ac:dyDescent="0.25">
@@ -4096,7 +6911,7 @@
       </c>
       <c r="F183">
         <f>COUNT(A183,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="184" spans="1:6" x14ac:dyDescent="0.25">
@@ -4108,7 +6923,7 @@
       </c>
       <c r="F184">
         <f>COUNT(A184,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="185" spans="1:6" x14ac:dyDescent="0.25">
@@ -4120,7 +6935,7 @@
       </c>
       <c r="F185">
         <f>COUNT(A185,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="186" spans="1:6" x14ac:dyDescent="0.25">
@@ -4132,7 +6947,7 @@
       </c>
       <c r="F186">
         <f>COUNT(A186,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="187" spans="1:6" x14ac:dyDescent="0.25">
@@ -4144,7 +6959,7 @@
       </c>
       <c r="F187">
         <f>COUNT(A187,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="188" spans="1:6" x14ac:dyDescent="0.25">
@@ -4156,7 +6971,7 @@
       </c>
       <c r="F188">
         <f>COUNT(A188,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="189" spans="1:6" x14ac:dyDescent="0.25">
@@ -4168,7 +6983,7 @@
       </c>
       <c r="F189">
         <f>COUNT(A189,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="190" spans="1:6" x14ac:dyDescent="0.25">
@@ -4180,7 +6995,7 @@
       </c>
       <c r="F190">
         <f>COUNT(A190,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="191" spans="1:6" x14ac:dyDescent="0.25">
@@ -4192,7 +7007,7 @@
       </c>
       <c r="F191">
         <f>COUNT(A191,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="192" spans="1:6" x14ac:dyDescent="0.25">
@@ -4204,7 +7019,7 @@
       </c>
       <c r="F192">
         <f>COUNT(A192,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="193" spans="1:6" x14ac:dyDescent="0.25">
@@ -4216,7 +7031,7 @@
       </c>
       <c r="F193">
         <f>COUNT(A193,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="194" spans="1:6" x14ac:dyDescent="0.25">
@@ -4228,7 +7043,7 @@
       </c>
       <c r="F194">
         <f>COUNT(A194,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="195" spans="1:6" x14ac:dyDescent="0.25">
@@ -4240,7 +7055,7 @@
       </c>
       <c r="F195">
         <f>COUNT(A195,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="196" spans="1:6" x14ac:dyDescent="0.25">
@@ -4252,7 +7067,7 @@
       </c>
       <c r="F196">
         <f>COUNT(A196,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="197" spans="1:6" x14ac:dyDescent="0.25">
@@ -4264,7 +7079,7 @@
       </c>
       <c r="F197">
         <f>COUNT(A197,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="198" spans="1:6" x14ac:dyDescent="0.25">
@@ -4276,7 +7091,7 @@
       </c>
       <c r="F198">
         <f>COUNT(A198,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="199" spans="1:6" x14ac:dyDescent="0.25">
@@ -4288,7 +7103,7 @@
       </c>
       <c r="F199">
         <f>COUNT(A199,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="200" spans="1:6" x14ac:dyDescent="0.25">
@@ -4300,7 +7115,7 @@
       </c>
       <c r="F200">
         <f>COUNT(A200,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="201" spans="1:6" x14ac:dyDescent="0.25">
@@ -4312,7 +7127,7 @@
       </c>
       <c r="F201">
         <f>COUNT(A201,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="202" spans="1:6" x14ac:dyDescent="0.25">
@@ -4324,7 +7139,7 @@
       </c>
       <c r="F202">
         <f>COUNT(A202,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="203" spans="1:6" x14ac:dyDescent="0.25">
@@ -4336,7 +7151,7 @@
       </c>
       <c r="F203">
         <f>COUNT(A203,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="204" spans="1:6" x14ac:dyDescent="0.25">
@@ -4348,7 +7163,7 @@
       </c>
       <c r="F204">
         <f>COUNT(A204,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="205" spans="1:6" x14ac:dyDescent="0.25">
@@ -4360,7 +7175,7 @@
       </c>
       <c r="F205">
         <f>COUNT(A205,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="206" spans="1:6" x14ac:dyDescent="0.25">
@@ -4372,7 +7187,7 @@
       </c>
       <c r="F206">
         <f>COUNT(A206,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="207" spans="1:6" x14ac:dyDescent="0.25">
@@ -4384,7 +7199,7 @@
       </c>
       <c r="F207">
         <f>COUNT(A207,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="208" spans="1:6" x14ac:dyDescent="0.25">
@@ -4396,7 +7211,7 @@
       </c>
       <c r="F208">
         <f>COUNT(A208,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="209" spans="1:6" x14ac:dyDescent="0.25">
@@ -4408,7 +7223,7 @@
       </c>
       <c r="F209">
         <f>COUNT(A209,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="210" spans="1:6" x14ac:dyDescent="0.25">
@@ -4420,7 +7235,7 @@
       </c>
       <c r="F210">
         <f>COUNT(A210,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="211" spans="1:6" x14ac:dyDescent="0.25">
@@ -4432,7 +7247,7 @@
       </c>
       <c r="F211">
         <f>COUNT(A211,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="212" spans="1:6" x14ac:dyDescent="0.25">
@@ -4444,7 +7259,7 @@
       </c>
       <c r="F212">
         <f>COUNT(A212,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="213" spans="1:6" x14ac:dyDescent="0.25">
@@ -4456,7 +7271,7 @@
       </c>
       <c r="F213">
         <f>COUNT(A213,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="214" spans="1:6" x14ac:dyDescent="0.25">
@@ -4468,7 +7283,7 @@
       </c>
       <c r="F214">
         <f>COUNT(A214,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="215" spans="1:6" x14ac:dyDescent="0.25">
@@ -4480,7 +7295,7 @@
       </c>
       <c r="F215">
         <f>COUNT(A215,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="216" spans="1:6" x14ac:dyDescent="0.25">
@@ -4492,7 +7307,7 @@
       </c>
       <c r="F216">
         <f>COUNT(A216,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="217" spans="1:6" x14ac:dyDescent="0.25">
@@ -4504,7 +7319,7 @@
       </c>
       <c r="F217">
         <f>COUNT(A217,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="218" spans="1:6" x14ac:dyDescent="0.25">
@@ -4516,7 +7331,7 @@
       </c>
       <c r="F218">
         <f>COUNT(A218,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="219" spans="1:6" x14ac:dyDescent="0.25">
@@ -4528,7 +7343,7 @@
       </c>
       <c r="F219">
         <f>COUNT(A219,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="220" spans="1:6" x14ac:dyDescent="0.25">
@@ -4540,7 +7355,7 @@
       </c>
       <c r="F220">
         <f>COUNT(A220,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="221" spans="1:6" x14ac:dyDescent="0.25">
@@ -4552,7 +7367,7 @@
       </c>
       <c r="F221">
         <f>COUNT(A221,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="222" spans="1:6" x14ac:dyDescent="0.25">
@@ -4564,7 +7379,7 @@
       </c>
       <c r="F222">
         <f>COUNT(A222,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="223" spans="1:6" x14ac:dyDescent="0.25">
@@ -4576,7 +7391,7 @@
       </c>
       <c r="F223">
         <f>COUNT(A223,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="224" spans="1:6" x14ac:dyDescent="0.25">
@@ -4588,7 +7403,7 @@
       </c>
       <c r="F224">
         <f>COUNT(A224,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="225" spans="1:6" x14ac:dyDescent="0.25">
@@ -4600,7 +7415,7 @@
       </c>
       <c r="F225">
         <f>COUNT(A225,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="226" spans="1:6" x14ac:dyDescent="0.25">
@@ -4612,7 +7427,7 @@
       </c>
       <c r="F226">
         <f>COUNT(A226,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="227" spans="1:6" x14ac:dyDescent="0.25">
@@ -4624,7 +7439,7 @@
       </c>
       <c r="F227">
         <f>COUNT(A227,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="228" spans="1:6" x14ac:dyDescent="0.25">
@@ -4636,7 +7451,7 @@
       </c>
       <c r="F228">
         <f>COUNT(A228,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="229" spans="1:6" x14ac:dyDescent="0.25">
@@ -4648,7 +7463,7 @@
       </c>
       <c r="F229">
         <f>COUNT(A229,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="230" spans="1:6" x14ac:dyDescent="0.25">
@@ -4660,7 +7475,7 @@
       </c>
       <c r="F230">
         <f>COUNT(A230,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="231" spans="1:6" x14ac:dyDescent="0.25">
@@ -4672,7 +7487,7 @@
       </c>
       <c r="F231">
         <f>COUNT(A231,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="232" spans="1:6" x14ac:dyDescent="0.25">
@@ -4684,7 +7499,7 @@
       </c>
       <c r="F232">
         <f>COUNT(A232,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="233" spans="1:6" x14ac:dyDescent="0.25">
@@ -4696,7 +7511,7 @@
       </c>
       <c r="F233">
         <f>COUNT(A233,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="234" spans="1:6" x14ac:dyDescent="0.25">
@@ -4708,7 +7523,7 @@
       </c>
       <c r="F234">
         <f>COUNT(A234,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="235" spans="1:6" x14ac:dyDescent="0.25">
@@ -4720,7 +7535,7 @@
       </c>
       <c r="F235">
         <f>COUNT(A235,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="236" spans="1:6" x14ac:dyDescent="0.25">
@@ -4732,7 +7547,7 @@
       </c>
       <c r="F236">
         <f>COUNT(A236,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="237" spans="1:6" x14ac:dyDescent="0.25">
@@ -4744,7 +7559,7 @@
       </c>
       <c r="F237">
         <f>COUNT(A237,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="238" spans="1:6" x14ac:dyDescent="0.25">
@@ -4756,7 +7571,7 @@
       </c>
       <c r="F238">
         <f>COUNT(A238,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="239" spans="1:6" x14ac:dyDescent="0.25">
@@ -4768,7 +7583,7 @@
       </c>
       <c r="F239">
         <f>COUNT(A239,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="240" spans="1:6" x14ac:dyDescent="0.25">
@@ -4780,7 +7595,7 @@
       </c>
       <c r="F240">
         <f>COUNT(A240,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="241" spans="1:6" x14ac:dyDescent="0.25">
@@ -4792,7 +7607,7 @@
       </c>
       <c r="F241">
         <f>COUNT(A241,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="242" spans="1:6" x14ac:dyDescent="0.25">
@@ -4804,7 +7619,7 @@
       </c>
       <c r="F242">
         <f>COUNT(A242,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="243" spans="1:6" x14ac:dyDescent="0.25">
@@ -4816,7 +7631,7 @@
       </c>
       <c r="F243">
         <f>COUNT(A243,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="244" spans="1:6" x14ac:dyDescent="0.25">
@@ -4828,7 +7643,7 @@
       </c>
       <c r="F244">
         <f>COUNT(A244,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="245" spans="1:6" x14ac:dyDescent="0.25">
@@ -4840,7 +7655,7 @@
       </c>
       <c r="F245">
         <f>COUNT(A245,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="246" spans="1:6" x14ac:dyDescent="0.25">
@@ -4852,7 +7667,7 @@
       </c>
       <c r="F246">
         <f>COUNT(A246,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="247" spans="1:6" x14ac:dyDescent="0.25">
@@ -4864,7 +7679,7 @@
       </c>
       <c r="F247">
         <f>COUNT(A247,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="248" spans="1:6" x14ac:dyDescent="0.25">
@@ -4876,7 +7691,7 @@
       </c>
       <c r="F248">
         <f>COUNT(A248,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="249" spans="1:6" x14ac:dyDescent="0.25">
@@ -4888,7 +7703,7 @@
       </c>
       <c r="F249">
         <f>COUNT(A249,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="250" spans="1:6" x14ac:dyDescent="0.25">
@@ -4900,7 +7715,7 @@
       </c>
       <c r="F250">
         <f>COUNT(A250,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="251" spans="1:6" x14ac:dyDescent="0.25">
@@ -4912,7 +7727,7 @@
       </c>
       <c r="F251">
         <f>COUNT(A251,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="252" spans="1:6" x14ac:dyDescent="0.25">
@@ -4924,7 +7739,7 @@
       </c>
       <c r="F252">
         <f>COUNT(A252,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="253" spans="1:6" x14ac:dyDescent="0.25">
@@ -4936,7 +7751,7 @@
       </c>
       <c r="F253">
         <f>COUNT(A253,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="254" spans="1:6" x14ac:dyDescent="0.25">
@@ -4948,7 +7763,7 @@
       </c>
       <c r="F254">
         <f>COUNT(A254,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="255" spans="1:6" x14ac:dyDescent="0.25">
@@ -4960,7 +7775,7 @@
       </c>
       <c r="F255">
         <f>COUNT(A255,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="256" spans="1:6" x14ac:dyDescent="0.25">
@@ -4972,7 +7787,7 @@
       </c>
       <c r="F256">
         <f>COUNT(A256,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="257" spans="1:6" x14ac:dyDescent="0.25">
@@ -4984,7 +7799,7 @@
       </c>
       <c r="F257">
         <f>COUNT(A257,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="258" spans="1:6" x14ac:dyDescent="0.25">
@@ -4996,7 +7811,7 @@
       </c>
       <c r="F258">
         <f>COUNT(A258,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="259" spans="1:6" x14ac:dyDescent="0.25">
@@ -5008,7 +7823,7 @@
       </c>
       <c r="F259">
         <f>COUNT(A259,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="260" spans="1:6" x14ac:dyDescent="0.25">
@@ -5020,7 +7835,7 @@
       </c>
       <c r="F260">
         <f>COUNT(A260,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="261" spans="1:6" x14ac:dyDescent="0.25">
@@ -5032,7 +7847,7 @@
       </c>
       <c r="F261">
         <f>COUNT(A261,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="262" spans="1:6" x14ac:dyDescent="0.25">
@@ -5044,7 +7859,7 @@
       </c>
       <c r="F262">
         <f>COUNT(A262,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="263" spans="1:6" x14ac:dyDescent="0.25">
@@ -5056,7 +7871,7 @@
       </c>
       <c r="F263">
         <f>COUNT(A263,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="264" spans="1:6" x14ac:dyDescent="0.25">
@@ -5068,7 +7883,7 @@
       </c>
       <c r="F264">
         <f>COUNT(A264,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="265" spans="1:6" x14ac:dyDescent="0.25">
@@ -5080,7 +7895,7 @@
       </c>
       <c r="F265">
         <f>COUNT(A265,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="266" spans="1:6" x14ac:dyDescent="0.25">
@@ -5092,7 +7907,7 @@
       </c>
       <c r="F266">
         <f>COUNT(A266,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="267" spans="1:6" x14ac:dyDescent="0.25">
@@ -5104,7 +7919,7 @@
       </c>
       <c r="F267">
         <f>COUNT(A267,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="268" spans="1:6" x14ac:dyDescent="0.25">
@@ -5116,7 +7931,7 @@
       </c>
       <c r="F268">
         <f>COUNT(A268,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="269" spans="1:6" x14ac:dyDescent="0.25">
@@ -5128,7 +7943,7 @@
       </c>
       <c r="F269">
         <f>COUNT(A269,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270" spans="1:6" x14ac:dyDescent="0.25">
@@ -5140,7 +7955,7 @@
       </c>
       <c r="F270">
         <f>COUNT(A270,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="271" spans="1:6" x14ac:dyDescent="0.25">
@@ -5152,7 +7967,7 @@
       </c>
       <c r="F271">
         <f>COUNT(A271,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="272" spans="1:6" x14ac:dyDescent="0.25">
@@ -5164,7 +7979,7 @@
       </c>
       <c r="F272">
         <f>COUNT(A272,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="273" spans="1:6" x14ac:dyDescent="0.25">
@@ -5176,7 +7991,7 @@
       </c>
       <c r="F273">
         <f>COUNT(A273,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="274" spans="1:6" x14ac:dyDescent="0.25">
@@ -5188,7 +8003,7 @@
       </c>
       <c r="F274">
         <f>COUNT(A274,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="275" spans="1:6" x14ac:dyDescent="0.25">
@@ -5200,7 +8015,7 @@
       </c>
       <c r="F275">
         <f>COUNT(A275,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="276" spans="1:6" x14ac:dyDescent="0.25">
@@ -5212,7 +8027,7 @@
       </c>
       <c r="F276">
         <f>COUNT(A276,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="277" spans="1:6" x14ac:dyDescent="0.25">
@@ -5224,7 +8039,7 @@
       </c>
       <c r="F277">
         <f>COUNT(A277,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="278" spans="1:6" x14ac:dyDescent="0.25">
@@ -5236,7 +8051,7 @@
       </c>
       <c r="F278">
         <f>COUNT(A278,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="279" spans="1:6" x14ac:dyDescent="0.25">
@@ -5248,7 +8063,7 @@
       </c>
       <c r="F279">
         <f>COUNT(A279,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="280" spans="1:6" x14ac:dyDescent="0.25">
@@ -5260,7 +8075,7 @@
       </c>
       <c r="F280">
         <f>COUNT(A280,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="281" spans="1:6" x14ac:dyDescent="0.25">
@@ -5272,7 +8087,7 @@
       </c>
       <c r="F281">
         <f>COUNT(A281,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="282" spans="1:6" x14ac:dyDescent="0.25">
@@ -5284,7 +8099,7 @@
       </c>
       <c r="F282">
         <f>COUNT(A282,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="283" spans="1:6" x14ac:dyDescent="0.25">
@@ -5296,7 +8111,7 @@
       </c>
       <c r="F283">
         <f>COUNT(A283,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="284" spans="1:6" x14ac:dyDescent="0.25">
@@ -5308,7 +8123,7 @@
       </c>
       <c r="F284">
         <f>COUNT(A284,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="285" spans="1:6" x14ac:dyDescent="0.25">
@@ -5320,7 +8135,7 @@
       </c>
       <c r="F285">
         <f>COUNT(A285,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="286" spans="1:6" x14ac:dyDescent="0.25">
@@ -5332,7 +8147,7 @@
       </c>
       <c r="F286">
         <f>COUNT(A286,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="287" spans="1:6" x14ac:dyDescent="0.25">
@@ -5344,7 +8159,7 @@
       </c>
       <c r="F287">
         <f>COUNT(A287,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="288" spans="1:6" x14ac:dyDescent="0.25">
@@ -5356,7 +8171,7 @@
       </c>
       <c r="F288">
         <f>COUNT(A288,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="289" spans="1:6" x14ac:dyDescent="0.25">
@@ -5368,7 +8183,7 @@
       </c>
       <c r="F289">
         <f>COUNT(A289,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="290" spans="1:6" x14ac:dyDescent="0.25">
@@ -5380,7 +8195,7 @@
       </c>
       <c r="F290">
         <f>COUNT(A290,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="291" spans="1:6" x14ac:dyDescent="0.25">
@@ -5392,7 +8207,7 @@
       </c>
       <c r="F291">
         <f>COUNT(A291,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="292" spans="1:6" x14ac:dyDescent="0.25">
@@ -5404,7 +8219,7 @@
       </c>
       <c r="F292">
         <f>COUNT(A292,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="293" spans="1:6" x14ac:dyDescent="0.25">
@@ -5416,7 +8231,7 @@
       </c>
       <c r="F293">
         <f>COUNT(A293,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="294" spans="1:6" x14ac:dyDescent="0.25">
@@ -5428,7 +8243,7 @@
       </c>
       <c r="F294">
         <f>COUNT(A294,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="295" spans="1:6" x14ac:dyDescent="0.25">
@@ -5440,7 +8255,7 @@
       </c>
       <c r="F295">
         <f>COUNT(A295,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="296" spans="1:6" x14ac:dyDescent="0.25">
@@ -5452,7 +8267,7 @@
       </c>
       <c r="F296">
         <f>COUNT(A296,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="297" spans="1:6" x14ac:dyDescent="0.25">
@@ -5464,7 +8279,7 @@
       </c>
       <c r="F297">
         <f>COUNT(A297,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="298" spans="1:6" x14ac:dyDescent="0.25">
@@ -5476,7 +8291,7 @@
       </c>
       <c r="F298">
         <f>COUNT(A298,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="299" spans="1:6" x14ac:dyDescent="0.25">
@@ -5488,7 +8303,7 @@
       </c>
       <c r="F299">
         <f>COUNT(A299,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="300" spans="1:6" x14ac:dyDescent="0.25">
@@ -5500,7 +8315,7 @@
       </c>
       <c r="F300">
         <f>COUNT(A300,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="301" spans="1:6" x14ac:dyDescent="0.25">
@@ -5512,7 +8327,7 @@
       </c>
       <c r="F301">
         <f>COUNT(A301,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="302" spans="1:6" x14ac:dyDescent="0.25">
@@ -5524,7 +8339,7 @@
       </c>
       <c r="F302">
         <f>COUNT(A302,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="303" spans="1:6" x14ac:dyDescent="0.25">
@@ -5536,7 +8351,7 @@
       </c>
       <c r="F303">
         <f>COUNT(A303,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="304" spans="1:6" x14ac:dyDescent="0.25">
@@ -5548,7 +8363,7 @@
       </c>
       <c r="F304">
         <f>COUNT(A304,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="305" spans="1:6" x14ac:dyDescent="0.25">
@@ -5560,7 +8375,7 @@
       </c>
       <c r="F305">
         <f>COUNT(A305,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="306" spans="1:6" x14ac:dyDescent="0.25">
@@ -5572,7 +8387,7 @@
       </c>
       <c r="F306">
         <f>COUNT(A306,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="307" spans="1:6" x14ac:dyDescent="0.25">
@@ -5584,7 +8399,7 @@
       </c>
       <c r="F307">
         <f>COUNT(A307,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="308" spans="1:6" x14ac:dyDescent="0.25">
@@ -5596,7 +8411,7 @@
       </c>
       <c r="F308">
         <f>COUNT(A308,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="309" spans="1:6" x14ac:dyDescent="0.25">
@@ -5608,7 +8423,7 @@
       </c>
       <c r="F309">
         <f>COUNT(A309,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="310" spans="1:6" x14ac:dyDescent="0.25">
@@ -5620,7 +8435,7 @@
       </c>
       <c r="F310">
         <f>COUNT(A310,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="311" spans="1:6" x14ac:dyDescent="0.25">
@@ -5632,7 +8447,7 @@
       </c>
       <c r="F311">
         <f>COUNT(A311,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="312" spans="1:6" x14ac:dyDescent="0.25">
@@ -5644,7 +8459,7 @@
       </c>
       <c r="F312">
         <f>COUNT(A312,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="313" spans="1:6" x14ac:dyDescent="0.25">
@@ -5656,7 +8471,7 @@
       </c>
       <c r="F313">
         <f>COUNT(A313,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="314" spans="1:6" x14ac:dyDescent="0.25">
@@ -5668,7 +8483,7 @@
       </c>
       <c r="F314">
         <f>COUNT(A314,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="315" spans="1:6" x14ac:dyDescent="0.25">
@@ -5680,7 +8495,7 @@
       </c>
       <c r="F315">
         <f>COUNT(A315,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="316" spans="1:6" x14ac:dyDescent="0.25">
@@ -5692,7 +8507,7 @@
       </c>
       <c r="F316">
         <f>COUNT(A316,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="317" spans="1:6" x14ac:dyDescent="0.25">
@@ -5704,7 +8519,7 @@
       </c>
       <c r="F317">
         <f>COUNT(A317,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="318" spans="1:6" x14ac:dyDescent="0.25">
@@ -5716,7 +8531,7 @@
       </c>
       <c r="F318">
         <f>COUNT(A318,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="319" spans="1:6" x14ac:dyDescent="0.25">
@@ -5728,7 +8543,7 @@
       </c>
       <c r="F319">
         <f>COUNT(A319,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="320" spans="1:6" x14ac:dyDescent="0.25">
@@ -5740,7 +8555,7 @@
       </c>
       <c r="F320">
         <f>COUNT(A320,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="321" spans="1:6" x14ac:dyDescent="0.25">
@@ -5752,7 +8567,7 @@
       </c>
       <c r="F321">
         <f>COUNT(A321,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="322" spans="1:6" x14ac:dyDescent="0.25">
@@ -5764,7 +8579,7 @@
       </c>
       <c r="F322">
         <f>COUNT(A322,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="323" spans="1:6" x14ac:dyDescent="0.25">
@@ -5776,7 +8591,7 @@
       </c>
       <c r="F323">
         <f>COUNT(A323,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="324" spans="1:6" x14ac:dyDescent="0.25">
@@ -5788,7 +8603,7 @@
       </c>
       <c r="F324">
         <f>COUNT(A324,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="325" spans="1:6" x14ac:dyDescent="0.25">
@@ -5800,7 +8615,7 @@
       </c>
       <c r="F325">
         <f>COUNT(A325,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="326" spans="1:6" x14ac:dyDescent="0.25">
@@ -5812,7 +8627,7 @@
       </c>
       <c r="F326">
         <f>COUNT(A326,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="327" spans="1:6" x14ac:dyDescent="0.25">
@@ -5824,7 +8639,7 @@
       </c>
       <c r="F327">
         <f>COUNT(A327,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="328" spans="1:6" x14ac:dyDescent="0.25">
@@ -5836,7 +8651,7 @@
       </c>
       <c r="F328">
         <f>COUNT(A328,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="329" spans="1:6" x14ac:dyDescent="0.25">
@@ -5848,7 +8663,7 @@
       </c>
       <c r="F329">
         <f>COUNT(A329,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="330" spans="1:6" x14ac:dyDescent="0.25">
@@ -5860,7 +8675,7 @@
       </c>
       <c r="F330">
         <f>COUNT(A330,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="331" spans="1:6" x14ac:dyDescent="0.25">
@@ -5872,7 +8687,7 @@
       </c>
       <c r="F331">
         <f>COUNT(A331,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="332" spans="1:6" x14ac:dyDescent="0.25">
@@ -5884,7 +8699,7 @@
       </c>
       <c r="F332">
         <f>COUNT(A332,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="333" spans="1:6" x14ac:dyDescent="0.25">
@@ -5896,7 +8711,7 @@
       </c>
       <c r="F333">
         <f>COUNT(A333,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="334" spans="1:6" x14ac:dyDescent="0.25">
@@ -5908,7 +8723,7 @@
       </c>
       <c r="F334">
         <f>COUNT(A334,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="335" spans="1:6" x14ac:dyDescent="0.25">
@@ -5920,7 +8735,7 @@
       </c>
       <c r="F335">
         <f>COUNT(A335,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="336" spans="1:6" x14ac:dyDescent="0.25">
@@ -5932,7 +8747,7 @@
       </c>
       <c r="F336">
         <f>COUNT(A336,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="337" spans="1:6" x14ac:dyDescent="0.25">
@@ -5944,7 +8759,7 @@
       </c>
       <c r="F337">
         <f>COUNT(A337,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="338" spans="1:6" x14ac:dyDescent="0.25">
@@ -5956,7 +8771,7 @@
       </c>
       <c r="F338">
         <f>COUNT(A338,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="339" spans="1:6" x14ac:dyDescent="0.25">
@@ -5968,7 +8783,7 @@
       </c>
       <c r="F339">
         <f>COUNT(A339,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="340" spans="1:6" x14ac:dyDescent="0.25">
@@ -5980,7 +8795,7 @@
       </c>
       <c r="F340">
         <f>COUNT(A340,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="341" spans="1:6" x14ac:dyDescent="0.25">
@@ -5992,7 +8807,7 @@
       </c>
       <c r="F341">
         <f>COUNT(A341,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="342" spans="1:6" x14ac:dyDescent="0.25">
@@ -6004,7 +8819,7 @@
       </c>
       <c r="F342">
         <f>COUNT(A342,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="343" spans="1:6" x14ac:dyDescent="0.25">
@@ -6016,7 +8831,7 @@
       </c>
       <c r="F343">
         <f>COUNT(A343,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="344" spans="1:6" x14ac:dyDescent="0.25">
@@ -6028,7 +8843,7 @@
       </c>
       <c r="F344">
         <f>COUNT(A344,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="345" spans="1:6" x14ac:dyDescent="0.25">
@@ -6040,7 +8855,7 @@
       </c>
       <c r="F345">
         <f>COUNT(A345,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="346" spans="1:6" x14ac:dyDescent="0.25">
@@ -6052,7 +8867,7 @@
       </c>
       <c r="F346">
         <f>COUNT(A346,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="347" spans="1:6" x14ac:dyDescent="0.25">
@@ -6064,7 +8879,7 @@
       </c>
       <c r="F347">
         <f>COUNT(A347,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="348" spans="1:6" x14ac:dyDescent="0.25">
@@ -6076,7 +8891,7 @@
       </c>
       <c r="F348">
         <f>COUNT(A348,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="349" spans="1:6" x14ac:dyDescent="0.25">
@@ -6088,7 +8903,7 @@
       </c>
       <c r="F349">
         <f>COUNT(A349,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="350" spans="1:6" x14ac:dyDescent="0.25">
@@ -6100,7 +8915,7 @@
       </c>
       <c r="F350">
         <f>COUNT(A350,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="351" spans="1:6" x14ac:dyDescent="0.25">
@@ -6112,7 +8927,7 @@
       </c>
       <c r="F351">
         <f>COUNT(A351,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="352" spans="1:6" x14ac:dyDescent="0.25">
@@ -6124,7 +8939,7 @@
       </c>
       <c r="F352">
         <f>COUNT(A352,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="353" spans="1:6" x14ac:dyDescent="0.25">
@@ -6136,7 +8951,7 @@
       </c>
       <c r="F353">
         <f>COUNT(A353,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="354" spans="1:6" x14ac:dyDescent="0.25">
@@ -6148,7 +8963,7 @@
       </c>
       <c r="F354">
         <f>COUNT(A354,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="355" spans="1:6" x14ac:dyDescent="0.25">
@@ -6160,7 +8975,7 @@
       </c>
       <c r="F355">
         <f>COUNT(A355,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="356" spans="1:6" x14ac:dyDescent="0.25">
@@ -6172,7 +8987,7 @@
       </c>
       <c r="F356">
         <f>COUNT(A356,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="357" spans="1:6" x14ac:dyDescent="0.25">
@@ -6184,7 +8999,7 @@
       </c>
       <c r="F357">
         <f>COUNT(A357,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="358" spans="1:6" x14ac:dyDescent="0.25">
@@ -6196,7 +9011,7 @@
       </c>
       <c r="F358">
         <f>COUNT(A358,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="359" spans="1:6" x14ac:dyDescent="0.25">
@@ -6208,7 +9023,7 @@
       </c>
       <c r="F359">
         <f>COUNT(A359,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="360" spans="1:6" x14ac:dyDescent="0.25">
@@ -6220,7 +9035,7 @@
       </c>
       <c r="F360">
         <f>COUNT(A360,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="361" spans="1:6" x14ac:dyDescent="0.25">
@@ -6232,7 +9047,7 @@
       </c>
       <c r="F361">
         <f>COUNT(A361,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
     <row r="362" spans="1:6" x14ac:dyDescent="0.25">
@@ -6244,7 +9059,7 @@
       </c>
       <c r="F362">
         <f>COUNT(A362,Resultados!J:L)-1</f>
-        <v>3</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
@@ -6253,12 +9068,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{21F0984D-9477-4FE7-9DC1-C068A44017F2}">
   <dimension ref="C4:F14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5:F10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
